--- a/alphabetindex/Alphabet Index.xlsx
+++ b/alphabetindex/Alphabet Index.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Word Index Pagination List" sheetId="1" r:id="rId1"/>
+    <sheet name="New Words List" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Words List'!$A$1:$B$1000</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
   <si>
     <r>
       <t>&lt;</t>
@@ -5298,7 +5302,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=dikumi"</t>
+      <t>"/search.html?inpt1=diledibua"</t>
     </r>
     <r>
       <rPr>
@@ -5316,7 +5320,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DIKUMI: 10</t>
+      <t>DILEDIBUA</t>
     </r>
     <r>
       <rPr>
@@ -5465,7 +5469,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=diledibua"</t>
+      <t>"/search.html?inpt1=dinu"</t>
     </r>
     <r>
       <rPr>
@@ -5483,7 +5487,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DILEDIBUA</t>
+      <t>DINU</t>
     </r>
     <r>
       <rPr>
@@ -5632,7 +5636,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=dinu"</t>
+      <t>"/search.html?inpt1=dipembu"</t>
     </r>
     <r>
       <rPr>
@@ -5650,7 +5654,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DINU</t>
+      <t>DIPEMBU</t>
     </r>
     <r>
       <rPr>
@@ -5799,7 +5803,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=dipembu"</t>
+      <t>"/search.html?inpt1=dishima"</t>
     </r>
     <r>
       <rPr>
@@ -5817,7 +5821,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DIPEMBU</t>
+      <t>DISHIMA</t>
     </r>
     <r>
       <rPr>
@@ -5966,7 +5970,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=dishima"</t>
+      <t>"/search.html?inpt1=disu"</t>
     </r>
     <r>
       <rPr>
@@ -5984,7 +5988,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DISHIMA</t>
+      <t>DISU</t>
     </r>
     <r>
       <rPr>
@@ -6133,7 +6137,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=disu"</t>
+      <t>"/search.html?inpt1=ditaba"</t>
     </r>
     <r>
       <rPr>
@@ -6151,7 +6155,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DISU</t>
+      <t>DITABA</t>
     </r>
     <r>
       <rPr>
@@ -6300,7 +6304,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ditaba"</t>
+      <t>"/search.html?inpt1=ditekemena"</t>
     </r>
     <r>
       <rPr>
@@ -6318,7 +6322,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITABA</t>
+      <t>DITEKEMENA</t>
     </r>
     <r>
       <rPr>
@@ -6467,7 +6471,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ditekemena"</t>
+      <t>"/search.html?inpt1=ditshi"</t>
     </r>
     <r>
       <rPr>
@@ -6485,7 +6489,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITEKEMENA</t>
+      <t>DITSHI</t>
     </r>
     <r>
       <rPr>
@@ -6634,7 +6638,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ditshi"</t>
+      <t>"/search.html?inpt1=dituku"</t>
     </r>
     <r>
       <rPr>
@@ -6652,7 +6656,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITSHI</t>
+      <t>DITUKU</t>
     </r>
     <r>
       <rPr>
@@ -6801,7 +6805,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=dituku"</t>
+      <t>"/search.html?inpt1=ditunga"</t>
     </r>
     <r>
       <rPr>
@@ -6819,7 +6823,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITUKU</t>
+      <t>DITUNGA</t>
     </r>
     <r>
       <rPr>
@@ -6968,7 +6972,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ditunga"</t>
+      <t>"/search.html?inpt1=ditutu"</t>
     </r>
     <r>
       <rPr>
@@ -6986,7 +6990,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITUNGA</t>
+      <t>DITUTU</t>
     </r>
     <r>
       <rPr>
@@ -7135,7 +7139,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ditutu"</t>
+      <t>"/search.html?inpt1=diulu"</t>
     </r>
     <r>
       <rPr>
@@ -7153,7 +7157,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DITUTU</t>
+      <t>DIULU</t>
     </r>
     <r>
       <rPr>
@@ -7302,7 +7306,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=diulu"</t>
+      <t>"/search.html?inpt1=diyi dikulu"</t>
     </r>
     <r>
       <rPr>
@@ -7320,7 +7324,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DIULU</t>
+      <t>DIYI DIKULU</t>
     </r>
     <r>
       <rPr>
@@ -7469,7 +7473,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=diyi dikulu"</t>
+      <t>"/search.html?inpt1=enda"</t>
     </r>
     <r>
       <rPr>
@@ -7487,7 +7491,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DIYI DIKULU</t>
+      <t>-ENDA</t>
     </r>
     <r>
       <rPr>
@@ -7636,7 +7640,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=diyi"</t>
+      <t>"/search.html?inpt1=enza"</t>
     </r>
     <r>
       <rPr>
@@ -7654,7 +7658,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>DIYI</t>
+      <t>-ENZA</t>
     </r>
     <r>
       <rPr>
@@ -7803,7 +7807,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=enda"</t>
+      <t>"/search.html?inpt1=enzeka"</t>
     </r>
     <r>
       <rPr>
@@ -7821,7 +7825,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-ENDA</t>
+      <t>-ENZEKA</t>
     </r>
     <r>
       <rPr>
@@ -7970,7 +7974,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=enza"</t>
+      <t>"/search.html?inpt1=eyowa"</t>
     </r>
     <r>
       <rPr>
@@ -7988,7 +7992,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-ENZA</t>
+      <t>EYOWA</t>
     </r>
     <r>
       <rPr>
@@ -8137,7 +8141,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=enzeka"</t>
+      <t>"/search.html?inpt1=fika"</t>
     </r>
     <r>
       <rPr>
@@ -8155,7 +8159,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-ENZEKA</t>
+      <t>-FIKA</t>
     </r>
     <r>
       <rPr>
@@ -8304,7 +8308,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=eyowa"</t>
+      <t>"/search.html?inpt1=funda"</t>
     </r>
     <r>
       <rPr>
@@ -8322,7 +8326,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>EYOWA</t>
+      <t>-FUNDA</t>
     </r>
     <r>
       <rPr>
@@ -8471,7 +8475,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=fika"</t>
+      <t>"/search.html?inpt1=ibidi"</t>
     </r>
     <r>
       <rPr>
@@ -8489,7 +8493,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-FIKA</t>
+      <t>IBIDI: 2</t>
     </r>
     <r>
       <rPr>
@@ -8499,6 +8503,24 @@
         <family val="3"/>
       </rPr>
       <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -8638,7 +8660,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=funda"</t>
+      <t>"/search.html?inpt1=ikala ne"</t>
     </r>
     <r>
       <rPr>
@@ -8656,7 +8678,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-FUNDA</t>
+      <t>-IKALA NE</t>
     </r>
     <r>
       <rPr>
@@ -8805,7 +8827,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ibidi"</t>
+      <t>"/search.html?inpt1=inayi"</t>
     </r>
     <r>
       <rPr>
@@ -8823,7 +8845,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>IBIDI: 2</t>
+      <t>INAYI: 4</t>
     </r>
     <r>
       <rPr>
@@ -8833,24 +8855,6 @@
         <family val="3"/>
       </rPr>
       <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -8990,7 +8994,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ikala ne"</t>
+      <t>"/search.html?inpt1=isambombo"</t>
     </r>
     <r>
       <rPr>
@@ -9008,7 +9012,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-IKALA NE</t>
+      <t>ISAMBOMBO: 6</t>
     </r>
     <r>
       <rPr>
@@ -9157,7 +9161,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ikala"</t>
+      <t>"/search.html?inpt1=isatu"</t>
     </r>
     <r>
       <rPr>
@@ -9175,7 +9179,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-IKALA</t>
+      <t>ISATU: 3</t>
     </r>
     <r>
       <rPr>
@@ -9324,7 +9328,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=inayi"</t>
+      <t>"/search.html?inpt1=itaba"</t>
     </r>
     <r>
       <rPr>
@@ -9342,7 +9346,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>INAYI: 4</t>
+      <t>-ITABA</t>
     </r>
     <r>
       <rPr>
@@ -9491,7 +9495,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=isambombo"</t>
+      <t>"/search.html?inpt1=itanu"</t>
     </r>
     <r>
       <rPr>
@@ -9509,7 +9513,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ISAMBOMBO: 6</t>
+      <t>ITANU: 5</t>
     </r>
     <r>
       <rPr>
@@ -9658,7 +9662,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=isatu"</t>
+      <t>"/search.html?inpt1=kabidi"</t>
     </r>
     <r>
       <rPr>
@@ -9676,7 +9680,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ISATU: 3</t>
+      <t>KABIDI</t>
     </r>
     <r>
       <rPr>
@@ -9825,7 +9829,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=itaba"</t>
+      <t>"/search.html?inpt1=kadianjidi"</t>
     </r>
     <r>
       <rPr>
@@ -9843,7 +9847,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-ITABA</t>
+      <t>KADIANJIDI</t>
     </r>
     <r>
       <rPr>
@@ -9992,7 +9996,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=itanu"</t>
+      <t>"/search.html?inpt1=kanungu"</t>
     </r>
     <r>
       <rPr>
@@ -10010,7 +10014,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ITANU: 5</t>
+      <t>KANUNGU</t>
     </r>
     <r>
       <rPr>
@@ -10159,7 +10163,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=kabidi"</t>
+      <t>"/search.html?inpt1=kosa"</t>
     </r>
     <r>
       <rPr>
@@ -10177,7 +10181,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>KABIDI</t>
+      <t>-KOSA</t>
     </r>
     <r>
       <rPr>
@@ -10326,7 +10330,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=kadianjidi"</t>
+      <t>"/search.html?inpt1=kuata"</t>
     </r>
     <r>
       <rPr>
@@ -10344,7 +10348,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>KADIANJIDI</t>
+      <t>-KUATA</t>
     </r>
     <r>
       <rPr>
@@ -10493,7 +10497,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=kanungu"</t>
+      <t>"/search.html?inpt1=leja"</t>
     </r>
     <r>
       <rPr>
@@ -10511,7 +10515,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>KANUNGU</t>
+      <t>-LEJA</t>
     </r>
     <r>
       <rPr>
@@ -10660,7 +10664,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=kosa"</t>
+      <t>"/search.html?inpt1=lomba"</t>
     </r>
     <r>
       <rPr>
@@ -10678,7 +10682,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-KOSA</t>
+      <t>-LOMBA</t>
     </r>
     <r>
       <rPr>
@@ -10827,7 +10831,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=kuata"</t>
+      <t>"/search.html?inpt1=lua"</t>
     </r>
     <r>
       <rPr>
@@ -10845,7 +10849,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-KUATA</t>
+      <t>-LUA</t>
     </r>
     <r>
       <rPr>
@@ -10994,7 +10998,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ledibua"</t>
+      <t>"/search.html?inpt1=lukama"</t>
     </r>
     <r>
       <rPr>
@@ -11012,7 +11016,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-LEDIBUA</t>
+      <t>LUKAMA: 100</t>
     </r>
     <r>
       <rPr>
@@ -11161,7 +11165,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=leja"</t>
+      <t>"/search.html?inpt1=lumingu"</t>
     </r>
     <r>
       <rPr>
@@ -11179,7 +11183,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-LEJA</t>
+      <t>LUMINGU</t>
     </r>
     <r>
       <rPr>
@@ -11328,7 +11332,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=lomba"</t>
+      <t>"/search.html?inpt1=makumi abidi ne ibidi"</t>
     </r>
     <r>
       <rPr>
@@ -11346,7 +11350,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-LOMBA</t>
+      <t>MAKUMI ABIDI NE IBIDI: 22</t>
     </r>
     <r>
       <rPr>
@@ -11495,7 +11499,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=lua"</t>
+      <t>"/search.html?inpt1=makumi abidi ne inayi"</t>
     </r>
     <r>
       <rPr>
@@ -11513,7 +11517,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-LUA</t>
+      <t>MAKUMI ABIDI NE INAYI: 24</t>
     </r>
     <r>
       <rPr>
@@ -11662,7 +11666,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=lukama"</t>
+      <t>"/search.html?inpt1=makumi abidi ne isambombo"</t>
     </r>
     <r>
       <rPr>
@@ -11680,7 +11684,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>LUKAMA: 100</t>
+      <t>MAKUMI ABIDI NE ISAMBOMBO: 26</t>
     </r>
     <r>
       <rPr>
@@ -11829,7 +11833,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=lumingu"</t>
+      <t>"/search.html?inpt1=makumi abidi ne isatu"</t>
     </r>
     <r>
       <rPr>
@@ -11847,7 +11851,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>LUMINGU</t>
+      <t>MAKUMI ABIDI NE ISATU: 23</t>
     </r>
     <r>
       <rPr>
@@ -11996,7 +12000,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne ibidi"</t>
+      <t>"/search.html?inpt1=makumi abidi ne itanu"</t>
     </r>
     <r>
       <rPr>
@@ -12014,7 +12018,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE IBIDI: 22</t>
+      <t>MAKUMI ABIDI NE ITANU: 25</t>
     </r>
     <r>
       <rPr>
@@ -12163,7 +12167,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne inayi"</t>
+      <t>"/search.html?inpt1=makumi abidi ne muanda-mukulu"</t>
     </r>
     <r>
       <rPr>
@@ -12181,7 +12185,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE INAYI: 24</t>
+      <t>MAKUMI ABIDI NE MUANDA-MUKULU: 28</t>
     </r>
     <r>
       <rPr>
@@ -12330,7 +12334,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne isambombo"</t>
+      <t>"/search.html?inpt1=makumi abidi ne muanda-mutekete"</t>
     </r>
     <r>
       <rPr>
@@ -12348,7 +12352,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE ISAMBOMBO: 26</t>
+      <t>MAKUMI ABIDI NE MUANDA-MUTEKETE: 27</t>
     </r>
     <r>
       <rPr>
@@ -12497,7 +12501,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne isatu"</t>
+      <t>"/search.html?inpt1=makumi abidi ne tshitema"</t>
     </r>
     <r>
       <rPr>
@@ -12515,7 +12519,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE ISATU: 23</t>
+      <t>MAKUMI ABIDI NE TSHITEMA: 29</t>
     </r>
     <r>
       <rPr>
@@ -12664,7 +12668,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne itanu"</t>
+      <t>"/search.html?inpt1=makumi abidi ne umwe"</t>
     </r>
     <r>
       <rPr>
@@ -12682,7 +12686,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE ITANU: 25</t>
+      <t>MAKUMI ABIDI NE UMWE: 21</t>
     </r>
     <r>
       <rPr>
@@ -12831,7 +12835,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne muanda-mukulu"</t>
+      <t>"/search.html?inpt1=makumi anayi"</t>
     </r>
     <r>
       <rPr>
@@ -12849,7 +12853,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE MUANDA-MUKULU: 28</t>
+      <t>MAKUMI ANAYI: 40</t>
     </r>
     <r>
       <rPr>
@@ -12998,7 +13002,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne muanda-mutekete"</t>
+      <t>"/search.html?inpt1=makumi asambombo"</t>
     </r>
     <r>
       <rPr>
@@ -13016,7 +13020,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE MUANDA-MUTEKETE: 27</t>
+      <t>MAKUMI ASAMBOMBO: 60</t>
     </r>
     <r>
       <rPr>
@@ -13165,7 +13169,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne tshitema"</t>
+      <t>"/search.html?inpt1=makumi asatu"</t>
     </r>
     <r>
       <rPr>
@@ -13183,7 +13187,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE TSHITEMA: 29</t>
+      <t>MAKUMI ASATU: 30</t>
     </r>
     <r>
       <rPr>
@@ -13332,7 +13336,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi ne umwe"</t>
+      <t>"/search.html?inpt1=makumi atanu"</t>
     </r>
     <r>
       <rPr>
@@ -13350,7 +13354,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI NE UMWE: 21</t>
+      <t>MAKUMI ATANU: 50</t>
     </r>
     <r>
       <rPr>
@@ -13499,7 +13503,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi abidi"</t>
+      <t>"/search.html?inpt1=makumi muanda-mukulu"</t>
     </r>
     <r>
       <rPr>
@@ -13517,7 +13521,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ABIDI: 20</t>
+      <t>MAKUMI MUANDA-MUKULU: 80</t>
     </r>
     <r>
       <rPr>
@@ -13666,7 +13670,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi anayi"</t>
+      <t>"/search.html?inpt1=makumi muanda-mutekete"</t>
     </r>
     <r>
       <rPr>
@@ -13684,7 +13688,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ANAYI: 40</t>
+      <t>MAKUMI MUANDA-MUTEKETE: 70</t>
     </r>
     <r>
       <rPr>
@@ -13833,7 +13837,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi asambombo"</t>
+      <t>"/search.html?inpt1=makumi tshitema"</t>
     </r>
     <r>
       <rPr>
@@ -13851,7 +13855,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ASAMBOMBO: 60</t>
+      <t>MAKUMI TSHITEMA: 90</t>
     </r>
     <r>
       <rPr>
@@ -14000,7 +14004,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi asatu"</t>
+      <t>"/search.html?inpt1=mashi"</t>
     </r>
     <r>
       <rPr>
@@ -14018,7 +14022,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ASATU: 30</t>
+      <t>MASHI</t>
     </r>
     <r>
       <rPr>
@@ -14167,7 +14171,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi atanu"</t>
+      <t>"/search.html?inpt1=mashika"</t>
     </r>
     <r>
       <rPr>
@@ -14185,7 +14189,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI ATANU: 50</t>
+      <t>MASHIKA</t>
     </r>
     <r>
       <rPr>
@@ -14334,7 +14338,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi muanda-mukulu"</t>
+      <t>"/search.html?inpt1=mfundilu"</t>
     </r>
     <r>
       <rPr>
@@ -14352,7 +14356,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI MUANDA-MUKULU: 80</t>
+      <t>MFUNDILU</t>
     </r>
     <r>
       <rPr>
@@ -14501,7 +14505,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi muanda-mutekete"</t>
+      <t>"/search.html?inpt1=mona"</t>
     </r>
     <r>
       <rPr>
@@ -14519,7 +14523,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI MUANDA-MUTEKETE: 70</t>
+      <t>-MONA</t>
     </r>
     <r>
       <rPr>
@@ -14668,7 +14672,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=makumi tshitema"</t>
+      <t>"/search.html?inpt1=muaku"</t>
     </r>
     <r>
       <rPr>
@@ -14686,7 +14690,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MAKUMI TSHITEMA: 90</t>
+      <t>MUAKU</t>
     </r>
     <r>
       <rPr>
@@ -14835,7 +14839,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mashi"</t>
+      <t>"/search.html?inpt1=muakulu"</t>
     </r>
     <r>
       <rPr>
@@ -14853,7 +14857,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MASHI</t>
+      <t>MUAKULU</t>
     </r>
     <r>
       <rPr>
@@ -15002,7 +15006,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mashika"</t>
+      <t>"/search.html?inpt1=muambikila"</t>
     </r>
     <r>
       <rPr>
@@ -15020,7 +15024,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MASHIKA</t>
+      <t>MUAMBIKILA</t>
     </r>
     <r>
       <rPr>
@@ -15169,7 +15173,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mfundilu"</t>
+      <t>"/search.html?inpt1=muanda"</t>
     </r>
     <r>
       <rPr>
@@ -15187,7 +15191,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MFUNDILU</t>
+      <t>MUANDA</t>
     </r>
     <r>
       <rPr>
@@ -15336,7 +15340,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mona"</t>
+      <t>"/search.html?inpt1=muanda-mukulu"</t>
     </r>
     <r>
       <rPr>
@@ -15354,7 +15358,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-MONA</t>
+      <t>MUANDA-MUKULU: 8</t>
     </r>
     <r>
       <rPr>
@@ -15503,7 +15507,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muaku"</t>
+      <t>"/search.html?inpt1=muanda-mutekete"</t>
     </r>
     <r>
       <rPr>
@@ -15521,7 +15525,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUAKU</t>
+      <t>MUANDA-MUTEKETE: 7</t>
     </r>
     <r>
       <rPr>
@@ -15670,7 +15674,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muakulu"</t>
+      <t>"/search.html?inpt1=mubidi"</t>
     </r>
     <r>
       <rPr>
@@ -15688,7 +15692,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUAKULU</t>
+      <t>MUBIDI</t>
     </r>
     <r>
       <rPr>
@@ -15837,7 +15841,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muambikila"</t>
+      <t>"/search.html?inpt1=mukaji"</t>
     </r>
     <r>
       <rPr>
@@ -15855,7 +15859,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUAMBIKILA</t>
+      <t>MUKAJI</t>
     </r>
     <r>
       <rPr>
@@ -16004,7 +16008,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muanda"</t>
+      <t>"/search.html?inpt1=mukalu"</t>
     </r>
     <r>
       <rPr>
@@ -16022,7 +16026,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUANDA</t>
+      <t>MUKALU</t>
     </r>
     <r>
       <rPr>
@@ -16171,7 +16175,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muanda-mukulu"</t>
+      <t>"/search.html?inpt1=mukana"</t>
     </r>
     <r>
       <rPr>
@@ -16189,7 +16193,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUANDA-MUKULU: 8</t>
+      <t>MUKANA</t>
     </r>
     <r>
       <rPr>
@@ -16338,7 +16342,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muanda-mutekete"</t>
+      <t>"/search.html?inpt1=mulombodi"</t>
     </r>
     <r>
       <rPr>
@@ -16356,7 +16360,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUANDA-MUTEKETE: 7</t>
+      <t>MULOMBODI</t>
     </r>
     <r>
       <rPr>
@@ -16505,7 +16509,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mubidi"</t>
+      <t>"/search.html?inpt1=mulume"</t>
     </r>
     <r>
       <rPr>
@@ -16523,7 +16527,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUBIDI</t>
+      <t>MULUME</t>
     </r>
     <r>
       <rPr>
@@ -16672,7 +16676,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mukaji"</t>
+      <t>"/search.html?inpt1=mungalata"</t>
     </r>
     <r>
       <rPr>
@@ -16690,7 +16694,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUKAJI</t>
+      <t>MUNGALATA</t>
     </r>
     <r>
       <rPr>
@@ -16839,7 +16843,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mukalu"</t>
+      <t>"/search.html?inpt1=muntu"</t>
     </r>
     <r>
       <rPr>
@@ -16857,7 +16861,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUKALU</t>
+      <t>MUNTU</t>
     </r>
     <r>
       <rPr>
@@ -17006,7 +17010,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mukana"</t>
+      <t>"/search.html?inpt1=munu"</t>
     </r>
     <r>
       <rPr>
@@ -17024,7 +17028,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUKANA</t>
+      <t>MUNU</t>
     </r>
     <r>
       <rPr>
@@ -17173,7 +17177,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mulombodi"</t>
+      <t>"/search.html?inpt1=muoyo"</t>
     </r>
     <r>
       <rPr>
@@ -17191,7 +17195,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MULOMBODI</t>
+      <t>MUOYO</t>
     </r>
     <r>
       <rPr>
@@ -17340,7 +17344,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mulume"</t>
+      <t>"/search.html?inpt1=mupinganyi"</t>
     </r>
     <r>
       <rPr>
@@ -17358,7 +17362,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MULUME</t>
+      <t>MUPINGANYI</t>
     </r>
     <r>
       <rPr>
@@ -17507,7 +17511,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mungalata"</t>
+      <t>"/search.html?inpt1=musangu"</t>
     </r>
     <r>
       <rPr>
@@ -17525,7 +17529,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUNGALATA</t>
+      <t>MUSANGU</t>
     </r>
     <r>
       <rPr>
@@ -17674,7 +17678,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muntu"</t>
+      <t>"/search.html?inpt1=mushiku"</t>
     </r>
     <r>
       <rPr>
@@ -17692,7 +17696,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUNTU</t>
+      <t>MUSHIKU</t>
     </r>
     <r>
       <rPr>
@@ -17841,7 +17845,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=munu"</t>
+      <t>"/search.html?inpt1=musungidi"</t>
     </r>
     <r>
       <rPr>
@@ -17859,7 +17863,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUNU</t>
+      <t>MUSUNGIDI</t>
     </r>
     <r>
       <rPr>
@@ -18008,7 +18012,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muoyo"</t>
+      <t>"/search.html?inpt1=mutoke"</t>
     </r>
     <r>
       <rPr>
@@ -18026,7 +18030,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUOYO</t>
+      <t>MUTOKE</t>
     </r>
     <r>
       <rPr>
@@ -18175,7 +18179,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mupinganyi"</t>
+      <t>"/search.html?inpt1=mutotu"</t>
     </r>
     <r>
       <rPr>
@@ -18193,7 +18197,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUPINGANYI</t>
+      <t>MUTOTU</t>
     </r>
     <r>
       <rPr>
@@ -18342,7 +18346,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=musangu"</t>
+      <t>"/search.html?inpt1=mutu"</t>
     </r>
     <r>
       <rPr>
@@ -18360,7 +18364,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUSANGU</t>
+      <t>MUTU</t>
     </r>
     <r>
       <rPr>
@@ -18509,7 +18513,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mushiku"</t>
+      <t>"/search.html?inpt1=muvu"</t>
     </r>
     <r>
       <rPr>
@@ -18527,7 +18531,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUSHIKU</t>
+      <t>MUVU</t>
     </r>
     <r>
       <rPr>
@@ -18676,7 +18680,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=musungidi"</t>
+      <t>"/search.html?inpt1=nansha"</t>
     </r>
     <r>
       <rPr>
@@ -18694,7 +18698,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUSUNGIDI</t>
+      <t>NANSHA</t>
     </r>
     <r>
       <rPr>
@@ -18843,7 +18847,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mutoke"</t>
+      <t>"/search.html?inpt1=ndekelu"</t>
     </r>
     <r>
       <rPr>
@@ -18861,7 +18865,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUTOKE</t>
+      <t>NDEKELU</t>
     </r>
     <r>
       <rPr>
@@ -19010,7 +19014,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mutotu"</t>
+      <t>"/search.html?inpt1=nganyi"</t>
     </r>
     <r>
       <rPr>
@@ -19028,7 +19032,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUTOTU</t>
+      <t>NGANYI</t>
     </r>
     <r>
       <rPr>
@@ -19177,7 +19181,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=mutu"</t>
+      <t>"/search.html?inpt1=ngondu"</t>
     </r>
     <r>
       <rPr>
@@ -19195,7 +19199,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUTU</t>
+      <t>NGONDU</t>
     </r>
     <r>
       <rPr>
@@ -19344,7 +19348,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=muvu"</t>
+      <t>"/search.html?inpt1=nkama ibidi"</t>
     </r>
     <r>
       <rPr>
@@ -19362,7 +19366,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>MUVU</t>
+      <t>NKAMA IBIDI: 200</t>
     </r>
     <r>
       <rPr>
@@ -19511,7 +19515,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nansha"</t>
+      <t>"/search.html?inpt1=nkama inayi"</t>
     </r>
     <r>
       <rPr>
@@ -19529,7 +19533,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NANSHA</t>
+      <t>NKAMA INAYI: 400</t>
     </r>
     <r>
       <rPr>
@@ -19678,7 +19682,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ndekelu"</t>
+      <t>"/search.html?inpt1=nkama isambombo"</t>
     </r>
     <r>
       <rPr>
@@ -19696,7 +19700,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NDEKELU</t>
+      <t>NKAMA ISAMBOMBO: 600</t>
     </r>
     <r>
       <rPr>
@@ -19845,7 +19849,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nganyi"</t>
+      <t>"/search.html?inpt1=nkama isatu"</t>
     </r>
     <r>
       <rPr>
@@ -19863,7 +19867,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NGANYI</t>
+      <t>NKAMA ISATU: 300</t>
     </r>
     <r>
       <rPr>
@@ -20012,7 +20016,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=ngondu"</t>
+      <t>"/search.html?inpt1=nkama itanu"</t>
     </r>
     <r>
       <rPr>
@@ -20030,7 +20034,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NGONDU</t>
+      <t>NKAMA ITANU: 500</t>
     </r>
     <r>
       <rPr>
@@ -20179,7 +20183,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama ibidi"</t>
+      <t>"/search.html?inpt1=nkama muanda-mukulu"</t>
     </r>
     <r>
       <rPr>
@@ -20197,7 +20201,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA IBIDI: 200</t>
+      <t>NKAMA MUANDA-MUKULU: 800</t>
     </r>
     <r>
       <rPr>
@@ -20346,7 +20350,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama inayi"</t>
+      <t>"/search.html?inpt1=nkama muanda-mutekete"</t>
     </r>
     <r>
       <rPr>
@@ -20364,7 +20368,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA INAYI: 400</t>
+      <t>NKAMA MUANDA-MUTEKETE: 700</t>
     </r>
     <r>
       <rPr>
@@ -20513,7 +20517,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama isambombo"</t>
+      <t>"/search.html?inpt1=nkama tshitema"</t>
     </r>
     <r>
       <rPr>
@@ -20531,7 +20535,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA ISAMBOMBO: 600</t>
+      <t>NKAMA TSHITEMA: 900</t>
     </r>
     <r>
       <rPr>
@@ -20680,7 +20684,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama isatu"</t>
+      <t>"/search.html?inpt1=nkongamiaku"</t>
     </r>
     <r>
       <rPr>
@@ -20698,7 +20702,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA ISATU: 300</t>
+      <t>NKONGAMIAKU</t>
     </r>
     <r>
       <rPr>
@@ -20847,7 +20851,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama itanu"</t>
+      <t>"/search.html?inpt1=nunka"</t>
     </r>
     <r>
       <rPr>
@@ -20865,7 +20869,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA ITANU: 500</t>
+      <t>-NUNKA</t>
     </r>
     <r>
       <rPr>
@@ -21014,7 +21018,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama muanda-mukulu"</t>
+      <t>"/search.html?inpt1=nyema"</t>
     </r>
     <r>
       <rPr>
@@ -21032,7 +21036,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA MUANDA-MUKULU: 800</t>
+      <t>-NYEMA</t>
     </r>
     <r>
       <rPr>
@@ -21181,7 +21185,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama muanda-mutekete"</t>
+      <t>"/search.html?inpt1=nyuma"</t>
     </r>
     <r>
       <rPr>
@@ -21199,7 +21203,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA MUANDA-MUTEKETE: 700</t>
+      <t>NYUMA</t>
     </r>
     <r>
       <rPr>
@@ -21348,7 +21352,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkama tshitema"</t>
+      <t>"/search.html?inpt1=penyo"</t>
     </r>
     <r>
       <rPr>
@@ -21366,7 +21370,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKAMA TSHITEMA: 900</t>
+      <t>PENYI</t>
     </r>
     <r>
       <rPr>
@@ -21515,7 +21519,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nkongamiaku"</t>
+      <t>"/search.html?inpt1=pesha"</t>
     </r>
     <r>
       <rPr>
@@ -21533,7 +21537,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NKONGAMIAKU</t>
+      <t>-PESHA</t>
     </r>
     <r>
       <rPr>
@@ -21682,7 +21686,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nunka"</t>
+      <t>"/search.html?inpt1=pingaja"</t>
     </r>
     <r>
       <rPr>
@@ -21700,7 +21704,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-NUNKA</t>
+      <t>-PINGAJA</t>
     </r>
     <r>
       <rPr>
@@ -21849,7 +21853,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nyema"</t>
+      <t>"/search.html?inpt1=pingana"</t>
     </r>
     <r>
       <rPr>
@@ -21867,7 +21871,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-NYEMA</t>
+      <t>-PINGANA</t>
     </r>
     <r>
       <rPr>
@@ -22016,7 +22020,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=nyuma"</t>
+      <t>"/search.html?inpt1=shila"</t>
     </r>
     <r>
       <rPr>
@@ -22034,7 +22038,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NYUMA</t>
+      <t>-SHILA</t>
     </r>
     <r>
       <rPr>
@@ -22183,7 +22187,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=penyo"</t>
+      <t>"/search.html?inpt1=shilangana"</t>
     </r>
     <r>
       <rPr>
@@ -22201,7 +22205,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>PENYI</t>
+      <t>-SHILANGANA</t>
     </r>
     <r>
       <rPr>
@@ -22350,7 +22354,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=pesha"</t>
+      <t>"/search.html?inpt1=shiya"</t>
     </r>
     <r>
       <rPr>
@@ -22368,7 +22372,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-PESHA</t>
+      <t>-SHIYA</t>
     </r>
     <r>
       <rPr>
@@ -22517,7 +22521,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=pingaja"</t>
+      <t>"/search.html?inpt1=tangila"</t>
     </r>
     <r>
       <rPr>
@@ -22535,7 +22539,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-PINGAJA</t>
+      <t>-TANGILA</t>
     </r>
     <r>
       <rPr>
@@ -22684,7 +22688,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=pingana"</t>
+      <t>"/search.html?inpt1=tekemena"</t>
     </r>
     <r>
       <rPr>
@@ -22702,7 +22706,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-PINGANA</t>
+      <t>-TEKEMENA</t>
     </r>
     <r>
       <rPr>
@@ -22851,7 +22855,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=shila"</t>
+      <t>"/search.html?inpt1=teleja"</t>
     </r>
     <r>
       <rPr>
@@ -22869,7 +22873,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-SHILA</t>
+      <t>-TELEJA</t>
     </r>
     <r>
       <rPr>
@@ -23018,7 +23022,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=shilangana"</t>
+      <t>"/search.html?inpt1=teta"</t>
     </r>
     <r>
       <rPr>
@@ -23036,7 +23040,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-SHILANGANA</t>
+      <t>-TETA</t>
     </r>
     <r>
       <rPr>
@@ -23185,7 +23189,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=shiya"</t>
+      <t>"/search.html?inpt1=tshianza"</t>
     </r>
     <r>
       <rPr>
@@ -23203,7 +23207,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-SHIYA</t>
+      <t>TSHIANZA</t>
     </r>
     <r>
       <rPr>
@@ -23352,7 +23356,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tangila"</t>
+      <t>"/search.html?inpt1=tshibambalu"</t>
     </r>
     <r>
       <rPr>
@@ -23370,7 +23374,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-TANGILA</t>
+      <t>TSHIBAMBALU</t>
     </r>
     <r>
       <rPr>
@@ -23519,7 +23523,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tekemena"</t>
+      <t>"/search.html?inpt1=tshibikidilu"</t>
     </r>
     <r>
       <rPr>
@@ -23537,7 +23541,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-TEKEMENA</t>
+      <t>TSHIBIKIDILU</t>
     </r>
     <r>
       <rPr>
@@ -23686,7 +23690,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=teleja"</t>
+      <t>"/search.html?inpt1=tshibuashibuashi"</t>
     </r>
     <r>
       <rPr>
@@ -23704,7 +23708,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-TELEJA</t>
+      <t>TSHIBUASHIBUASHI</t>
     </r>
     <r>
       <rPr>
@@ -23853,7 +23857,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=teta"</t>
+      <t>"/search.html?inpt1=tshidimu"</t>
     </r>
     <r>
       <rPr>
@@ -23871,7 +23875,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-TETA</t>
+      <t>TSHIDIMU</t>
     </r>
     <r>
       <rPr>
@@ -24020,7 +24024,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshianza"</t>
+      <t>"/search.html?inpt1=tshijengu"</t>
     </r>
     <r>
       <rPr>
@@ -24038,7 +24042,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIANZA</t>
+      <t>TSHIJENGU: 0</t>
     </r>
     <r>
       <rPr>
@@ -24187,7 +24191,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshibambalu"</t>
+      <t>"/search.html?inpt1=tshikondu"</t>
     </r>
     <r>
       <rPr>
@@ -24205,7 +24209,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIBAMBALU</t>
+      <t>TSHIKONDU</t>
     </r>
     <r>
       <rPr>
@@ -24354,7 +24358,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshibikidilu"</t>
+      <t>"/search.html?inpt1=tshilema"</t>
     </r>
     <r>
       <rPr>
@@ -24372,7 +24376,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIBIKIDILU</t>
+      <t>TSHILEMA</t>
     </r>
     <r>
       <rPr>
@@ -24521,7 +24525,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshibuashibuashi"</t>
+      <t>"/search.html?inpt1=tshimbadi"</t>
     </r>
     <r>
       <rPr>
@@ -24539,7 +24543,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIBUASHIBUASHI</t>
+      <t>TSHIMBADI</t>
     </r>
     <r>
       <rPr>
@@ -24688,7 +24692,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshidimu"</t>
+      <t>"/search.html?inpt1=tshintu"</t>
     </r>
     <r>
       <rPr>
@@ -24706,7 +24710,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIDIMU</t>
+      <t>TSHINTU</t>
     </r>
     <r>
       <rPr>
@@ -24855,7 +24859,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshijengu"</t>
+      <t>"/search.html?inpt1=tshinunu"</t>
     </r>
     <r>
       <rPr>
@@ -24873,7 +24877,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIJENGU: 0</t>
+      <t>TSHINUNU: 1000</t>
     </r>
     <r>
       <rPr>
@@ -25022,7 +25026,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshikondu"</t>
+      <t>"/search.html?inpt1=tshinyi"</t>
     </r>
     <r>
       <rPr>
@@ -25040,7 +25044,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIKONDU</t>
+      <t>TSHINYI</t>
     </r>
     <r>
       <rPr>
@@ -25189,7 +25193,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshilema"</t>
+      <t>"/search.html?inpt1=tshipatshila"</t>
     </r>
     <r>
       <rPr>
@@ -25207,7 +25211,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHILEMA</t>
+      <t>TSHIPATSHILA</t>
     </r>
     <r>
       <rPr>
@@ -25356,7 +25360,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshimbadi"</t>
+      <t>"/search.html?inpt1=tshisumbu"</t>
     </r>
     <r>
       <rPr>
@@ -25374,7 +25378,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIMBADI</t>
+      <t>TSHISUMBU</t>
     </r>
     <r>
       <rPr>
@@ -25523,7 +25527,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshintu"</t>
+      <t>"/search.html?inpt1=tshitema"</t>
     </r>
     <r>
       <rPr>
@@ -25541,7 +25545,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHINTU</t>
+      <t>TSHITEMA: 9</t>
     </r>
     <r>
       <rPr>
@@ -25690,7 +25694,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshinunu"</t>
+      <t>"/search.html?inpt1=tshitupa"</t>
     </r>
     <r>
       <rPr>
@@ -25708,7 +25712,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHINUNU: 1000</t>
+      <t>TSHITUPA</t>
     </r>
     <r>
       <rPr>
@@ -25857,7 +25861,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshinyi"</t>
+      <t>"/search.html?inpt1=umvua"</t>
     </r>
     <r>
       <rPr>
@@ -25875,7 +25879,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHINYI</t>
+      <t>-UMVUA</t>
     </r>
     <r>
       <rPr>
@@ -26024,7 +26028,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshipatshila"</t>
+      <t>"/search.html?inpt1=umwe"</t>
     </r>
     <r>
       <rPr>
@@ -26042,7 +26046,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHIPATSHILA</t>
+      <t>UMWE: 1</t>
     </r>
     <r>
       <rPr>
@@ -26191,7 +26195,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshisumbu"</t>
+      <t>"/search.html?inpt1=ya"</t>
     </r>
     <r>
       <rPr>
@@ -26209,7 +26213,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHISUMBU</t>
+      <t>-YA</t>
     </r>
     <r>
       <rPr>
@@ -26358,7 +26362,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=tshitema"</t>
+      <t>"/search.html?inpt1=zebuka"</t>
     </r>
     <r>
       <rPr>
@@ -26376,7 +26380,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>TSHITEMA: 9</t>
+      <t>-ZEBUKA</t>
     </r>
     <r>
       <rPr>
@@ -26425,674 +26429,243 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"links"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/search.html?inpt1=tshitupa"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TSHITUPA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <t>DATE</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"links"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/search.html?inpt1=umvua"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-UMVUA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <t>WORD</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"links"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/search.html?inpt1=umwe"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>UMWE: 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <t>DIBA</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"links"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>href</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/search.html?inpt1=ya"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-YA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <t>DITUKU</t>
   </si>
   <si>
+    <t>LUMINGU</t>
+  </si>
+  <si>
+    <t>MUVU</t>
+  </si>
+  <si>
+    <t>NGONDU</t>
+  </si>
+  <si>
+    <t>TSHIKONDU</t>
+  </si>
+  <si>
+    <t>MUTOTU</t>
+  </si>
+  <si>
+    <t>MUSANGU</t>
+  </si>
+  <si>
+    <t>DIULU</t>
+  </si>
+  <si>
+    <t>KUSHILANGANA</t>
+  </si>
+  <si>
+    <t>MUBIDI</t>
+  </si>
+  <si>
+    <t>MULUME</t>
+  </si>
+  <si>
+    <t>MUKAJI</t>
+  </si>
+  <si>
+    <t>DITABA</t>
+  </si>
+  <si>
+    <t>MUSUNGIDI</t>
+  </si>
+  <si>
+    <t>TSHISUMBU</t>
+  </si>
+  <si>
+    <t>DILEDIBUA</t>
+  </si>
+  <si>
+    <t>NYUMA</t>
+  </si>
+  <si>
+    <t>MULOMBODI</t>
+  </si>
+  <si>
+    <t>KIUTABA</t>
+  </si>
+  <si>
+    <t>MUTU</t>
+  </si>
+  <si>
+    <t>MUTOKE</t>
+  </si>
+  <si>
+    <t>MASHI</t>
+  </si>
+  <si>
+    <t>MUNU</t>
+  </si>
+  <si>
+    <t>DITSHI</t>
+  </si>
+  <si>
+    <t>DISU</t>
+  </si>
+  <si>
+    <t>DINU</t>
+  </si>
+  <si>
+    <t>MUSHIKU</t>
+  </si>
+  <si>
+    <t>MUKANA</t>
+  </si>
+  <si>
+    <t>KULOMBA</t>
+  </si>
+  <si>
+    <t>DITEKEMENA</t>
+  </si>
+  <si>
+    <t>KUTEKEMENA</t>
+  </si>
+  <si>
+    <t>KULEJA</t>
+  </si>
+  <si>
+    <t>MUOYO</t>
+  </si>
+  <si>
+    <t>DISHIMA</t>
+  </si>
+  <si>
+    <t>BULELELA</t>
+  </si>
+  <si>
+    <t>KUSHIPA</t>
+  </si>
+  <si>
+    <t>MUNYINYI</t>
+  </si>
+  <si>
+    <t>MULAMBU</t>
+  </si>
+  <si>
+    <t>DIKASA</t>
+  </si>
+  <si>
+    <t>DIBOKU</t>
+  </si>
+  <si>
+    <t>MUKOLU</t>
+  </si>
+  <si>
+    <t>MPALA</t>
+  </si>
+  <si>
+    <t>NSHINGU</t>
+  </si>
+  <si>
+    <t>DITAKU</t>
+  </si>
+  <si>
+    <t>MUFUBA</t>
+  </si>
+  <si>
+    <t>TSHIFU</t>
+  </si>
+  <si>
+    <t>DIFU</t>
+  </si>
+  <si>
+    <t>DIKOBA</t>
+  </si>
+  <si>
+    <t>DIKALA</t>
+  </si>
+  <si>
+    <t>MUMPEMPE</t>
+  </si>
+  <si>
+    <t>DIBELE</t>
+  </si>
+  <si>
+    <t>TSHIADI</t>
+  </si>
+  <si>
+    <t>LUSUKI</t>
+  </si>
+  <si>
+    <t>MUEDI</t>
+  </si>
+  <si>
+    <t>DIKIKI</t>
+  </si>
+  <si>
+    <t>TSHIALA</t>
+  </si>
+  <si>
+    <t>MUANA WA NKASA</t>
+  </si>
+  <si>
+    <t>TSHIKANKANYA</t>
+  </si>
+  <si>
+    <t>LUZADI</t>
+  </si>
+  <si>
+    <t>TSHIBALUBALU</t>
+  </si>
+  <si>
+    <t>TSHINU</t>
+  </si>
+  <si>
+    <t>LUDIMI</t>
+  </si>
+  <si>
+    <t>TSHISULUSULU</t>
+  </si>
+  <si>
+    <t>DIKAYA</t>
+  </si>
+  <si>
+    <t>MUTSHIMA</t>
+  </si>
+  <si>
+    <t>KAMUMA</t>
+  </si>
+  <si>
+    <t>BIKOYIKOYI</t>
+  </si>
+  <si>
+    <t>TSHILAFINYI</t>
+  </si>
+  <si>
+    <t>TSHIKUNDUKUNDU</t>
+  </si>
+  <si>
+    <t>DIKOSHI</t>
+  </si>
+  <si>
+    <t>BUTOKE</t>
+  </si>
+  <si>
+    <t>MUENDU</t>
+  </si>
+  <si>
+    <t>--TOKE</t>
+  </si>
+  <si>
+    <t>BUFIIKE</t>
+  </si>
+  <si>
+    <t>--FIIKE</t>
+  </si>
+  <si>
+    <t>MIDIMA</t>
+  </si>
+  <si>
     <r>
       <t>&lt;</t>
     </r>
@@ -27193,7 +26766,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/search.html?inpt1=zebuka"</t>
+      <t>"/search.html?inpt1=dikumi "</t>
     </r>
     <r>
       <rPr>
@@ -27211,7 +26784,678 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-ZEBUKA</t>
+      <t>DIKUMI: 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>KULELA</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"links"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search.html?inpt1=lela"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-LELA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"links"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search.html?inpt1=diyi "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DIYI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"links"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search.html?inpt1=ikala "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-IKALA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"links"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search.html?inpt1=makumi abidi "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAKUMI ABIDI: 20</t>
     </r>
     <r>
       <rPr>
@@ -27264,7 +27508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27302,16 +27546,66 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -27334,11 +27628,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -27347,12 +27656,76 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -27629,8 +28002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27745,717 +28118,5072 @@
     </row>
     <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="88" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="89" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="92" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="94" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="96" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="98" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="102" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="104" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="105" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="106" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="108" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="109" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="110" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="112" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="115" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="117" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="119" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="121" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="122" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="123" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="163" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A163">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:A163">
+    <sortCondition ref="A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45293</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>45294</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>45295</v>
+      </c>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="7"/>
+    </row>
+    <row r="92" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="7"/>
+    </row>
+    <row r="98" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13"/>
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+      <c r="B139" s="7"/>
+    </row>
+    <row r="140" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="13"/>
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="7"/>
+    </row>
+    <row r="142" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="13"/>
+      <c r="B142" s="7"/>
+    </row>
+    <row r="143" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+      <c r="B143" s="7"/>
+    </row>
+    <row r="144" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="13"/>
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="13"/>
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="13"/>
+      <c r="B148" s="7"/>
+    </row>
+    <row r="149" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+      <c r="B151" s="7"/>
+    </row>
+    <row r="152" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" s="7"/>
+    </row>
+    <row r="155" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="7"/>
+    </row>
+    <row r="162" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="7"/>
+    </row>
+    <row r="163" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="13"/>
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="13"/>
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="13"/>
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="13"/>
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="13"/>
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="13"/>
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="13"/>
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="13"/>
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="13"/>
+      <c r="B181" s="7"/>
+    </row>
+    <row r="182" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="13"/>
+      <c r="B183" s="7"/>
+    </row>
+    <row r="184" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+      <c r="B184" s="7"/>
+    </row>
+    <row r="185" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="13"/>
+      <c r="B185" s="7"/>
+    </row>
+    <row r="186" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="13"/>
+      <c r="B187" s="7"/>
+    </row>
+    <row r="188" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="13"/>
+      <c r="B189" s="7"/>
+    </row>
+    <row r="190" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="13"/>
+      <c r="B191" s="7"/>
+    </row>
+    <row r="192" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+      <c r="B192" s="7"/>
+    </row>
+    <row r="193" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+      <c r="B194" s="7"/>
+    </row>
+    <row r="195" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
+      <c r="B195" s="7"/>
+    </row>
+    <row r="196" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="7"/>
+    </row>
+    <row r="197" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="13"/>
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+      <c r="B198" s="7"/>
+    </row>
+    <row r="199" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="13"/>
+      <c r="B199" s="7"/>
+    </row>
+    <row r="200" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+      <c r="B200" s="7"/>
+    </row>
+    <row r="201" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="13"/>
+      <c r="B201" s="7"/>
+    </row>
+    <row r="202" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+      <c r="B202" s="7"/>
+    </row>
+    <row r="203" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="B203" s="7"/>
+    </row>
+    <row r="204" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+      <c r="B204" s="7"/>
+    </row>
+    <row r="205" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="13"/>
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+      <c r="B206" s="7"/>
+    </row>
+    <row r="207" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="13"/>
+      <c r="B207" s="7"/>
+    </row>
+    <row r="208" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="13"/>
+      <c r="B209" s="7"/>
+    </row>
+    <row r="210" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+      <c r="B210" s="7"/>
+    </row>
+    <row r="211" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="13"/>
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="13"/>
+      <c r="B212" s="7"/>
+    </row>
+    <row r="213" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="13"/>
+      <c r="B213" s="7"/>
+    </row>
+    <row r="214" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="13"/>
+      <c r="B214" s="7"/>
+    </row>
+    <row r="215" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="13"/>
+      <c r="B215" s="7"/>
+    </row>
+    <row r="216" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+      <c r="B216" s="7"/>
+    </row>
+    <row r="217" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="13"/>
+      <c r="B217" s="7"/>
+    </row>
+    <row r="218" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="13"/>
+      <c r="B219" s="7"/>
+    </row>
+    <row r="220" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="13"/>
+      <c r="B220" s="7"/>
+    </row>
+    <row r="221" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="13"/>
+      <c r="B221" s="7"/>
+    </row>
+    <row r="222" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="13"/>
+      <c r="B222" s="7"/>
+    </row>
+    <row r="223" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="13"/>
+      <c r="B223" s="7"/>
+    </row>
+    <row r="224" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+      <c r="B224" s="7"/>
+    </row>
+    <row r="225" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="13"/>
+      <c r="B225" s="7"/>
+    </row>
+    <row r="226" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="13"/>
+      <c r="B226" s="7"/>
+    </row>
+    <row r="227" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="13"/>
+      <c r="B227" s="7"/>
+    </row>
+    <row r="228" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="13"/>
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="13"/>
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="13"/>
+      <c r="B233" s="7"/>
+    </row>
+    <row r="234" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="13"/>
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="13"/>
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="13"/>
+      <c r="B237" s="7"/>
+    </row>
+    <row r="238" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="13"/>
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="13"/>
+      <c r="B239" s="7"/>
+    </row>
+    <row r="240" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="13"/>
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="13"/>
+      <c r="B241" s="7"/>
+    </row>
+    <row r="242" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="13"/>
+      <c r="B242" s="7"/>
+    </row>
+    <row r="243" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="13"/>
+      <c r="B243" s="7"/>
+    </row>
+    <row r="244" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="13"/>
+      <c r="B244" s="7"/>
+    </row>
+    <row r="245" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="13"/>
+      <c r="B245" s="7"/>
+    </row>
+    <row r="246" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="13"/>
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="13"/>
+      <c r="B247" s="7"/>
+    </row>
+    <row r="248" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="13"/>
+      <c r="B248" s="7"/>
+    </row>
+    <row r="249" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="13"/>
+      <c r="B249" s="7"/>
+    </row>
+    <row r="250" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="13"/>
+      <c r="B250" s="7"/>
+    </row>
+    <row r="251" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="13"/>
+      <c r="B251" s="7"/>
+    </row>
+    <row r="252" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+      <c r="B252" s="7"/>
+    </row>
+    <row r="253" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="13"/>
+      <c r="B253" s="7"/>
+    </row>
+    <row r="254" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
+      <c r="B254" s="7"/>
+    </row>
+    <row r="255" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="13"/>
+      <c r="B255" s="7"/>
+    </row>
+    <row r="256" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="13"/>
+      <c r="B256" s="7"/>
+    </row>
+    <row r="257" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="13"/>
+      <c r="B257" s="7"/>
+    </row>
+    <row r="258" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="13"/>
+      <c r="B258" s="7"/>
+    </row>
+    <row r="259" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="13"/>
+      <c r="B259" s="7"/>
+    </row>
+    <row r="260" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="13"/>
+      <c r="B260" s="7"/>
+    </row>
+    <row r="261" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="13"/>
+      <c r="B261" s="7"/>
+    </row>
+    <row r="262" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+      <c r="B262" s="7"/>
+    </row>
+    <row r="263" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="13"/>
+      <c r="B263" s="7"/>
+    </row>
+    <row r="264" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+      <c r="B264" s="7"/>
+    </row>
+    <row r="265" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="13"/>
+      <c r="B265" s="7"/>
+    </row>
+    <row r="266" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+      <c r="B266" s="7"/>
+    </row>
+    <row r="267" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="13"/>
+      <c r="B267" s="7"/>
+    </row>
+    <row r="268" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+      <c r="B268" s="7"/>
+    </row>
+    <row r="269" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="13"/>
+      <c r="B269" s="7"/>
+    </row>
+    <row r="270" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+      <c r="B270" s="7"/>
+    </row>
+    <row r="271" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="13"/>
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+      <c r="B272" s="7"/>
+    </row>
+    <row r="273" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="13"/>
+      <c r="B273" s="7"/>
+    </row>
+    <row r="274" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+      <c r="B274" s="7"/>
+    </row>
+    <row r="275" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="13"/>
+      <c r="B275" s="7"/>
+    </row>
+    <row r="276" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+      <c r="B276" s="7"/>
+    </row>
+    <row r="277" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="13"/>
+      <c r="B277" s="7"/>
+    </row>
+    <row r="278" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+      <c r="B278" s="7"/>
+    </row>
+    <row r="279" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="13"/>
+      <c r="B279" s="7"/>
+    </row>
+    <row r="280" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+      <c r="B280" s="7"/>
+    </row>
+    <row r="281" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="13"/>
+      <c r="B281" s="7"/>
+    </row>
+    <row r="282" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="13"/>
+      <c r="B282" s="7"/>
+    </row>
+    <row r="283" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="13"/>
+      <c r="B283" s="7"/>
+    </row>
+    <row r="284" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="13"/>
+      <c r="B284" s="7"/>
+    </row>
+    <row r="285" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="13"/>
+      <c r="B285" s="7"/>
+    </row>
+    <row r="286" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="13"/>
+      <c r="B286" s="7"/>
+    </row>
+    <row r="287" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="13"/>
+      <c r="B287" s="7"/>
+    </row>
+    <row r="288" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="13"/>
+      <c r="B288" s="7"/>
+    </row>
+    <row r="289" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="13"/>
+      <c r="B289" s="7"/>
+    </row>
+    <row r="290" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="13"/>
+      <c r="B290" s="7"/>
+    </row>
+    <row r="291" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="13"/>
+      <c r="B291" s="7"/>
+    </row>
+    <row r="292" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="13"/>
+      <c r="B292" s="7"/>
+    </row>
+    <row r="293" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="13"/>
+      <c r="B293" s="7"/>
+    </row>
+    <row r="294" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="13"/>
+      <c r="B294" s="7"/>
+    </row>
+    <row r="295" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="13"/>
+      <c r="B295" s="7"/>
+    </row>
+    <row r="296" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="13"/>
+      <c r="B296" s="7"/>
+    </row>
+    <row r="297" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="13"/>
+      <c r="B297" s="7"/>
+    </row>
+    <row r="298" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="13"/>
+      <c r="B298" s="7"/>
+    </row>
+    <row r="299" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="13"/>
+      <c r="B299" s="7"/>
+    </row>
+    <row r="300" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="13"/>
+      <c r="B300" s="7"/>
+    </row>
+    <row r="301" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="13"/>
+      <c r="B301" s="7"/>
+    </row>
+    <row r="302" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="13"/>
+      <c r="B302" s="7"/>
+    </row>
+    <row r="303" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="13"/>
+      <c r="B303" s="7"/>
+    </row>
+    <row r="304" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="13"/>
+      <c r="B304" s="7"/>
+    </row>
+    <row r="305" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="13"/>
+      <c r="B305" s="7"/>
+    </row>
+    <row r="306" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="13"/>
+      <c r="B306" s="7"/>
+    </row>
+    <row r="307" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="13"/>
+      <c r="B307" s="7"/>
+    </row>
+    <row r="308" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="13"/>
+      <c r="B308" s="7"/>
+    </row>
+    <row r="309" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="13"/>
+      <c r="B309" s="7"/>
+    </row>
+    <row r="310" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="13"/>
+      <c r="B310" s="7"/>
+    </row>
+    <row r="311" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="13"/>
+      <c r="B311" s="7"/>
+    </row>
+    <row r="312" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="13"/>
+      <c r="B312" s="7"/>
+    </row>
+    <row r="313" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="13"/>
+      <c r="B313" s="7"/>
+    </row>
+    <row r="314" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="13"/>
+      <c r="B314" s="7"/>
+    </row>
+    <row r="315" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="13"/>
+      <c r="B315" s="7"/>
+    </row>
+    <row r="316" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="13"/>
+      <c r="B316" s="7"/>
+    </row>
+    <row r="317" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="13"/>
+      <c r="B317" s="7"/>
+    </row>
+    <row r="318" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="13"/>
+      <c r="B318" s="7"/>
+    </row>
+    <row r="319" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="13"/>
+      <c r="B319" s="7"/>
+    </row>
+    <row r="320" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="13"/>
+      <c r="B320" s="7"/>
+    </row>
+    <row r="321" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="13"/>
+      <c r="B321" s="7"/>
+    </row>
+    <row r="322" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="13"/>
+      <c r="B322" s="7"/>
+    </row>
+    <row r="323" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="13"/>
+      <c r="B323" s="7"/>
+    </row>
+    <row r="324" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="13"/>
+      <c r="B324" s="7"/>
+    </row>
+    <row r="325" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="13"/>
+      <c r="B325" s="7"/>
+    </row>
+    <row r="326" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="13"/>
+      <c r="B326" s="7"/>
+    </row>
+    <row r="327" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="13"/>
+      <c r="B327" s="7"/>
+    </row>
+    <row r="328" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="13"/>
+      <c r="B328" s="7"/>
+    </row>
+    <row r="329" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="13"/>
+      <c r="B329" s="7"/>
+    </row>
+    <row r="330" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="13"/>
+      <c r="B330" s="7"/>
+    </row>
+    <row r="331" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="13"/>
+      <c r="B331" s="7"/>
+    </row>
+    <row r="332" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="13"/>
+      <c r="B332" s="7"/>
+    </row>
+    <row r="333" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="13"/>
+      <c r="B333" s="7"/>
+    </row>
+    <row r="334" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="13"/>
+      <c r="B334" s="7"/>
+    </row>
+    <row r="335" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="13"/>
+      <c r="B335" s="7"/>
+    </row>
+    <row r="336" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="13"/>
+      <c r="B336" s="7"/>
+    </row>
+    <row r="337" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="13"/>
+      <c r="B337" s="7"/>
+    </row>
+    <row r="338" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="13"/>
+      <c r="B338" s="7"/>
+    </row>
+    <row r="339" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="13"/>
+      <c r="B339" s="7"/>
+    </row>
+    <row r="340" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="13"/>
+      <c r="B340" s="7"/>
+    </row>
+    <row r="341" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="13"/>
+      <c r="B341" s="7"/>
+    </row>
+    <row r="342" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="13"/>
+      <c r="B342" s="7"/>
+    </row>
+    <row r="343" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="13"/>
+      <c r="B343" s="7"/>
+    </row>
+    <row r="344" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+      <c r="B344" s="7"/>
+    </row>
+    <row r="345" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="13"/>
+      <c r="B345" s="7"/>
+    </row>
+    <row r="346" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="13"/>
+      <c r="B346" s="7"/>
+    </row>
+    <row r="347" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="13"/>
+      <c r="B347" s="7"/>
+    </row>
+    <row r="348" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="13"/>
+      <c r="B348" s="7"/>
+    </row>
+    <row r="349" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="13"/>
+      <c r="B349" s="7"/>
+    </row>
+    <row r="350" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="13"/>
+      <c r="B350" s="7"/>
+    </row>
+    <row r="351" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="13"/>
+      <c r="B351" s="7"/>
+    </row>
+    <row r="352" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="13"/>
+      <c r="B352" s="7"/>
+    </row>
+    <row r="353" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="13"/>
+      <c r="B353" s="7"/>
+    </row>
+    <row r="354" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="13"/>
+      <c r="B354" s="7"/>
+    </row>
+    <row r="355" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="13"/>
+      <c r="B355" s="7"/>
+    </row>
+    <row r="356" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="13"/>
+      <c r="B356" s="7"/>
+    </row>
+    <row r="357" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="13"/>
+      <c r="B357" s="7"/>
+    </row>
+    <row r="358" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="13"/>
+      <c r="B358" s="7"/>
+    </row>
+    <row r="359" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="13"/>
+      <c r="B359" s="7"/>
+    </row>
+    <row r="360" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="13"/>
+      <c r="B360" s="7"/>
+    </row>
+    <row r="361" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="13"/>
+      <c r="B361" s="7"/>
+    </row>
+    <row r="362" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="13"/>
+      <c r="B362" s="7"/>
+    </row>
+    <row r="363" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="13"/>
+      <c r="B363" s="7"/>
+    </row>
+    <row r="364" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="13"/>
+      <c r="B364" s="7"/>
+    </row>
+    <row r="365" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="13"/>
+      <c r="B365" s="7"/>
+    </row>
+    <row r="366" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="13"/>
+      <c r="B366" s="7"/>
+    </row>
+    <row r="367" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="13"/>
+      <c r="B367" s="7"/>
+    </row>
+    <row r="368" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="13"/>
+      <c r="B368" s="7"/>
+    </row>
+    <row r="369" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="13"/>
+      <c r="B369" s="7"/>
+    </row>
+    <row r="370" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="13"/>
+      <c r="B370" s="7"/>
+    </row>
+    <row r="371" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="13"/>
+      <c r="B371" s="7"/>
+    </row>
+    <row r="372" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="13"/>
+      <c r="B372" s="7"/>
+    </row>
+    <row r="373" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="13"/>
+      <c r="B373" s="7"/>
+    </row>
+    <row r="374" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="13"/>
+      <c r="B374" s="7"/>
+    </row>
+    <row r="375" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="13"/>
+      <c r="B375" s="7"/>
+    </row>
+    <row r="376" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="13"/>
+      <c r="B376" s="7"/>
+    </row>
+    <row r="377" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="13"/>
+      <c r="B377" s="7"/>
+    </row>
+    <row r="378" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="13"/>
+      <c r="B378" s="7"/>
+    </row>
+    <row r="379" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="13"/>
+      <c r="B379" s="7"/>
+    </row>
+    <row r="380" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="13"/>
+      <c r="B380" s="7"/>
+    </row>
+    <row r="381" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="13"/>
+      <c r="B381" s="7"/>
+    </row>
+    <row r="382" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="13"/>
+      <c r="B382" s="7"/>
+    </row>
+    <row r="383" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="13"/>
+      <c r="B383" s="7"/>
+    </row>
+    <row r="384" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="13"/>
+      <c r="B384" s="7"/>
+    </row>
+    <row r="385" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="13"/>
+      <c r="B385" s="7"/>
+    </row>
+    <row r="386" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="13"/>
+      <c r="B386" s="7"/>
+    </row>
+    <row r="387" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="13"/>
+      <c r="B387" s="7"/>
+    </row>
+    <row r="388" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="13"/>
+      <c r="B388" s="7"/>
+    </row>
+    <row r="389" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="13"/>
+      <c r="B389" s="7"/>
+    </row>
+    <row r="390" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="13"/>
+      <c r="B390" s="7"/>
+    </row>
+    <row r="391" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="13"/>
+      <c r="B391" s="7"/>
+    </row>
+    <row r="392" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="13"/>
+      <c r="B392" s="7"/>
+    </row>
+    <row r="393" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="13"/>
+      <c r="B393" s="7"/>
+    </row>
+    <row r="394" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="13"/>
+      <c r="B394" s="7"/>
+    </row>
+    <row r="395" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="13"/>
+      <c r="B395" s="7"/>
+    </row>
+    <row r="396" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="13"/>
+      <c r="B396" s="7"/>
+    </row>
+    <row r="397" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="13"/>
+      <c r="B397" s="7"/>
+    </row>
+    <row r="398" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="13"/>
+      <c r="B398" s="7"/>
+    </row>
+    <row r="399" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="13"/>
+      <c r="B399" s="7"/>
+    </row>
+    <row r="400" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="13"/>
+      <c r="B400" s="7"/>
+    </row>
+    <row r="401" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="13"/>
+      <c r="B401" s="7"/>
+    </row>
+    <row r="402" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="13"/>
+      <c r="B402" s="7"/>
+    </row>
+    <row r="403" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="13"/>
+      <c r="B403" s="7"/>
+    </row>
+    <row r="404" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="13"/>
+      <c r="B404" s="7"/>
+    </row>
+    <row r="405" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="13"/>
+      <c r="B405" s="7"/>
+    </row>
+    <row r="406" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="13"/>
+      <c r="B406" s="7"/>
+    </row>
+    <row r="407" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="13"/>
+      <c r="B407" s="7"/>
+    </row>
+    <row r="408" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="13"/>
+      <c r="B408" s="7"/>
+    </row>
+    <row r="409" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="13"/>
+      <c r="B409" s="7"/>
+    </row>
+    <row r="410" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="13"/>
+      <c r="B410" s="7"/>
+    </row>
+    <row r="411" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="13"/>
+      <c r="B411" s="7"/>
+    </row>
+    <row r="412" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="13"/>
+      <c r="B412" s="7"/>
+    </row>
+    <row r="413" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="13"/>
+      <c r="B413" s="7"/>
+    </row>
+    <row r="414" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="13"/>
+      <c r="B414" s="7"/>
+    </row>
+    <row r="415" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="13"/>
+      <c r="B415" s="7"/>
+    </row>
+    <row r="416" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="13"/>
+      <c r="B416" s="7"/>
+    </row>
+    <row r="417" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="13"/>
+      <c r="B417" s="7"/>
+    </row>
+    <row r="418" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="13"/>
+      <c r="B418" s="7"/>
+    </row>
+    <row r="419" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="13"/>
+      <c r="B419" s="7"/>
+    </row>
+    <row r="420" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="13"/>
+      <c r="B420" s="7"/>
+    </row>
+    <row r="421" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="13"/>
+      <c r="B421" s="7"/>
+    </row>
+    <row r="422" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="13"/>
+      <c r="B422" s="7"/>
+    </row>
+    <row r="423" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="13"/>
+      <c r="B423" s="7"/>
+    </row>
+    <row r="424" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="13"/>
+      <c r="B424" s="7"/>
+    </row>
+    <row r="425" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="13"/>
+      <c r="B425" s="7"/>
+    </row>
+    <row r="426" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="13"/>
+      <c r="B426" s="7"/>
+    </row>
+    <row r="427" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="13"/>
+      <c r="B427" s="7"/>
+    </row>
+    <row r="428" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="13"/>
+      <c r="B428" s="7"/>
+    </row>
+    <row r="429" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="13"/>
+      <c r="B429" s="7"/>
+    </row>
+    <row r="430" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="13"/>
+      <c r="B430" s="7"/>
+    </row>
+    <row r="431" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="13"/>
+      <c r="B431" s="7"/>
+    </row>
+    <row r="432" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="13"/>
+      <c r="B432" s="7"/>
+    </row>
+    <row r="433" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="13"/>
+      <c r="B433" s="7"/>
+    </row>
+    <row r="434" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="13"/>
+      <c r="B434" s="7"/>
+    </row>
+    <row r="435" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="13"/>
+      <c r="B435" s="7"/>
+    </row>
+    <row r="436" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="13"/>
+      <c r="B436" s="7"/>
+    </row>
+    <row r="437" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="13"/>
+      <c r="B437" s="7"/>
+    </row>
+    <row r="438" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="13"/>
+      <c r="B438" s="7"/>
+    </row>
+    <row r="439" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="13"/>
+      <c r="B439" s="7"/>
+    </row>
+    <row r="440" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="13"/>
+      <c r="B440" s="7"/>
+    </row>
+    <row r="441" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="13"/>
+      <c r="B441" s="7"/>
+    </row>
+    <row r="442" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="13"/>
+      <c r="B442" s="7"/>
+    </row>
+    <row r="443" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="13"/>
+      <c r="B443" s="7"/>
+    </row>
+    <row r="444" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="13"/>
+      <c r="B444" s="7"/>
+    </row>
+    <row r="445" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="13"/>
+      <c r="B445" s="7"/>
+    </row>
+    <row r="446" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="13"/>
+      <c r="B446" s="7"/>
+    </row>
+    <row r="447" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="13"/>
+      <c r="B447" s="7"/>
+    </row>
+    <row r="448" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="13"/>
+      <c r="B448" s="7"/>
+    </row>
+    <row r="449" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="13"/>
+      <c r="B449" s="7"/>
+    </row>
+    <row r="450" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="13"/>
+      <c r="B450" s="7"/>
+    </row>
+    <row r="451" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="13"/>
+      <c r="B451" s="7"/>
+    </row>
+    <row r="452" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="13"/>
+      <c r="B452" s="7"/>
+    </row>
+    <row r="453" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="13"/>
+      <c r="B453" s="7"/>
+    </row>
+    <row r="454" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="13"/>
+      <c r="B454" s="7"/>
+    </row>
+    <row r="455" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="13"/>
+      <c r="B455" s="7"/>
+    </row>
+    <row r="456" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="13"/>
+      <c r="B456" s="7"/>
+    </row>
+    <row r="457" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="13"/>
+      <c r="B457" s="7"/>
+    </row>
+    <row r="458" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="13"/>
+      <c r="B458" s="7"/>
+    </row>
+    <row r="459" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="13"/>
+      <c r="B459" s="7"/>
+    </row>
+    <row r="460" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="13"/>
+      <c r="B460" s="7"/>
+    </row>
+    <row r="461" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="13"/>
+      <c r="B461" s="7"/>
+    </row>
+    <row r="462" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="13"/>
+      <c r="B462" s="7"/>
+    </row>
+    <row r="463" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="13"/>
+      <c r="B463" s="7"/>
+    </row>
+    <row r="464" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="13"/>
+      <c r="B464" s="7"/>
+    </row>
+    <row r="465" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="13"/>
+      <c r="B465" s="7"/>
+    </row>
+    <row r="466" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="13"/>
+      <c r="B466" s="7"/>
+    </row>
+    <row r="467" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="13"/>
+      <c r="B467" s="7"/>
+    </row>
+    <row r="468" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="13"/>
+      <c r="B468" s="7"/>
+    </row>
+    <row r="469" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="13"/>
+      <c r="B469" s="7"/>
+    </row>
+    <row r="470" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="13"/>
+      <c r="B470" s="7"/>
+    </row>
+    <row r="471" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="13"/>
+      <c r="B471" s="7"/>
+    </row>
+    <row r="472" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="13"/>
+      <c r="B472" s="7"/>
+    </row>
+    <row r="473" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="13"/>
+      <c r="B473" s="7"/>
+    </row>
+    <row r="474" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="13"/>
+      <c r="B474" s="7"/>
+    </row>
+    <row r="475" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="13"/>
+      <c r="B475" s="7"/>
+    </row>
+    <row r="476" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="13"/>
+      <c r="B476" s="7"/>
+    </row>
+    <row r="477" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="13"/>
+      <c r="B477" s="7"/>
+    </row>
+    <row r="478" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="13"/>
+      <c r="B478" s="7"/>
+    </row>
+    <row r="479" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="13"/>
+      <c r="B479" s="7"/>
+    </row>
+    <row r="480" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="13"/>
+      <c r="B480" s="7"/>
+    </row>
+    <row r="481" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="13"/>
+      <c r="B481" s="7"/>
+    </row>
+    <row r="482" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="13"/>
+      <c r="B482" s="7"/>
+    </row>
+    <row r="483" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="13"/>
+      <c r="B483" s="7"/>
+    </row>
+    <row r="484" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="13"/>
+      <c r="B484" s="7"/>
+    </row>
+    <row r="485" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="13"/>
+      <c r="B485" s="7"/>
+    </row>
+    <row r="486" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="13"/>
+      <c r="B486" s="7"/>
+    </row>
+    <row r="487" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="13"/>
+      <c r="B487" s="7"/>
+    </row>
+    <row r="488" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="13"/>
+      <c r="B488" s="7"/>
+    </row>
+    <row r="489" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="13"/>
+      <c r="B489" s="7"/>
+    </row>
+    <row r="490" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="13"/>
+      <c r="B490" s="7"/>
+    </row>
+    <row r="491" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="13"/>
+      <c r="B491" s="7"/>
+    </row>
+    <row r="492" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="13"/>
+      <c r="B492" s="7"/>
+    </row>
+    <row r="493" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="13"/>
+      <c r="B493" s="7"/>
+    </row>
+    <row r="494" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="13"/>
+      <c r="B494" s="7"/>
+    </row>
+    <row r="495" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="13"/>
+      <c r="B495" s="7"/>
+    </row>
+    <row r="496" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="13"/>
+      <c r="B496" s="7"/>
+    </row>
+    <row r="497" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="13"/>
+      <c r="B497" s="7"/>
+    </row>
+    <row r="498" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="13"/>
+      <c r="B498" s="7"/>
+    </row>
+    <row r="499" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="13"/>
+      <c r="B499" s="7"/>
+    </row>
+    <row r="500" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="13"/>
+      <c r="B500" s="7"/>
+    </row>
+    <row r="501" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="13"/>
+      <c r="B501" s="7"/>
+    </row>
+    <row r="502" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="13"/>
+      <c r="B502" s="7"/>
+    </row>
+    <row r="503" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="13"/>
+      <c r="B503" s="7"/>
+    </row>
+    <row r="504" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="13"/>
+      <c r="B504" s="7"/>
+    </row>
+    <row r="505" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="13"/>
+      <c r="B505" s="7"/>
+    </row>
+    <row r="506" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="13"/>
+      <c r="B506" s="7"/>
+    </row>
+    <row r="507" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="13"/>
+      <c r="B507" s="7"/>
+    </row>
+    <row r="508" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="13"/>
+      <c r="B508" s="7"/>
+    </row>
+    <row r="509" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="13"/>
+      <c r="B509" s="7"/>
+    </row>
+    <row r="510" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="13"/>
+      <c r="B510" s="7"/>
+    </row>
+    <row r="511" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="13"/>
+      <c r="B511" s="7"/>
+    </row>
+    <row r="512" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="13"/>
+      <c r="B512" s="7"/>
+    </row>
+    <row r="513" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="13"/>
+      <c r="B513" s="7"/>
+    </row>
+    <row r="514" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="13"/>
+      <c r="B514" s="7"/>
+    </row>
+    <row r="515" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="13"/>
+      <c r="B515" s="7"/>
+    </row>
+    <row r="516" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="13"/>
+      <c r="B516" s="7"/>
+    </row>
+    <row r="517" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="13"/>
+      <c r="B517" s="7"/>
+    </row>
+    <row r="518" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="13"/>
+      <c r="B518" s="7"/>
+    </row>
+    <row r="519" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="13"/>
+      <c r="B519" s="7"/>
+    </row>
+    <row r="520" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="13"/>
+      <c r="B520" s="7"/>
+    </row>
+    <row r="521" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="13"/>
+      <c r="B521" s="7"/>
+    </row>
+    <row r="522" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="13"/>
+      <c r="B522" s="7"/>
+    </row>
+    <row r="523" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="13"/>
+      <c r="B523" s="7"/>
+    </row>
+    <row r="524" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="13"/>
+      <c r="B524" s="7"/>
+    </row>
+    <row r="525" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="13"/>
+      <c r="B525" s="7"/>
+    </row>
+    <row r="526" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="13"/>
+      <c r="B526" s="7"/>
+    </row>
+    <row r="527" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="13"/>
+      <c r="B527" s="7"/>
+    </row>
+    <row r="528" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="13"/>
+      <c r="B528" s="7"/>
+    </row>
+    <row r="529" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="13"/>
+      <c r="B529" s="7"/>
+    </row>
+    <row r="530" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="13"/>
+      <c r="B530" s="7"/>
+    </row>
+    <row r="531" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="13"/>
+      <c r="B531" s="7"/>
+    </row>
+    <row r="532" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="13"/>
+      <c r="B532" s="7"/>
+    </row>
+    <row r="533" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="13"/>
+      <c r="B533" s="7"/>
+    </row>
+    <row r="534" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="13"/>
+      <c r="B534" s="7"/>
+    </row>
+    <row r="535" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="13"/>
+      <c r="B535" s="7"/>
+    </row>
+    <row r="536" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="13"/>
+      <c r="B536" s="7"/>
+    </row>
+    <row r="537" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="13"/>
+      <c r="B537" s="7"/>
+    </row>
+    <row r="538" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="13"/>
+      <c r="B538" s="7"/>
+    </row>
+    <row r="539" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="13"/>
+      <c r="B539" s="7"/>
+    </row>
+    <row r="540" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="13"/>
+      <c r="B540" s="7"/>
+    </row>
+    <row r="541" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="13"/>
+      <c r="B541" s="7"/>
+    </row>
+    <row r="542" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="13"/>
+      <c r="B542" s="7"/>
+    </row>
+    <row r="543" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="13"/>
+      <c r="B543" s="7"/>
+    </row>
+    <row r="544" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="13"/>
+      <c r="B544" s="7"/>
+    </row>
+    <row r="545" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="13"/>
+      <c r="B545" s="7"/>
+    </row>
+    <row r="546" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="13"/>
+      <c r="B546" s="7"/>
+    </row>
+    <row r="547" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="13"/>
+      <c r="B547" s="7"/>
+    </row>
+    <row r="548" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="13"/>
+      <c r="B548" s="7"/>
+    </row>
+    <row r="549" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="13"/>
+      <c r="B549" s="7"/>
+    </row>
+    <row r="550" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="13"/>
+      <c r="B550" s="7"/>
+    </row>
+    <row r="551" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="13"/>
+      <c r="B551" s="7"/>
+    </row>
+    <row r="552" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="13"/>
+      <c r="B552" s="7"/>
+    </row>
+    <row r="553" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="13"/>
+      <c r="B553" s="7"/>
+    </row>
+    <row r="554" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="13"/>
+      <c r="B554" s="7"/>
+    </row>
+    <row r="555" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="13"/>
+      <c r="B555" s="7"/>
+    </row>
+    <row r="556" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="13"/>
+      <c r="B556" s="7"/>
+    </row>
+    <row r="557" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="13"/>
+      <c r="B557" s="7"/>
+    </row>
+    <row r="558" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="13"/>
+      <c r="B558" s="7"/>
+    </row>
+    <row r="559" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="13"/>
+      <c r="B559" s="7"/>
+    </row>
+    <row r="560" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="13"/>
+      <c r="B560" s="7"/>
+    </row>
+    <row r="561" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="13"/>
+      <c r="B561" s="7"/>
+    </row>
+    <row r="562" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="13"/>
+      <c r="B562" s="7"/>
+    </row>
+    <row r="563" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="13"/>
+      <c r="B563" s="7"/>
+    </row>
+    <row r="564" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="13"/>
+      <c r="B564" s="7"/>
+    </row>
+    <row r="565" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="13"/>
+      <c r="B565" s="7"/>
+    </row>
+    <row r="566" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="13"/>
+      <c r="B566" s="7"/>
+    </row>
+    <row r="567" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="13"/>
+      <c r="B567" s="7"/>
+    </row>
+    <row r="568" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="13"/>
+      <c r="B568" s="7"/>
+    </row>
+    <row r="569" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="13"/>
+      <c r="B569" s="7"/>
+    </row>
+    <row r="570" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="13"/>
+      <c r="B570" s="7"/>
+    </row>
+    <row r="571" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="13"/>
+      <c r="B571" s="7"/>
+    </row>
+    <row r="572" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="13"/>
+      <c r="B572" s="7"/>
+    </row>
+    <row r="573" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="13"/>
+      <c r="B573" s="7"/>
+    </row>
+    <row r="574" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="13"/>
+      <c r="B574" s="7"/>
+    </row>
+    <row r="575" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="13"/>
+      <c r="B575" s="7"/>
+    </row>
+    <row r="576" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="13"/>
+      <c r="B576" s="7"/>
+    </row>
+    <row r="577" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="13"/>
+      <c r="B577" s="7"/>
+    </row>
+    <row r="578" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="13"/>
+      <c r="B578" s="7"/>
+    </row>
+    <row r="579" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="13"/>
+      <c r="B579" s="7"/>
+    </row>
+    <row r="580" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="13"/>
+      <c r="B580" s="7"/>
+    </row>
+    <row r="581" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="13"/>
+      <c r="B581" s="7"/>
+    </row>
+    <row r="582" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="13"/>
+      <c r="B582" s="7"/>
+    </row>
+    <row r="583" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="13"/>
+      <c r="B583" s="7"/>
+    </row>
+    <row r="584" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="13"/>
+      <c r="B584" s="7"/>
+    </row>
+    <row r="585" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="13"/>
+      <c r="B585" s="7"/>
+    </row>
+    <row r="586" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="13"/>
+      <c r="B586" s="7"/>
+    </row>
+    <row r="587" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="13"/>
+      <c r="B587" s="7"/>
+    </row>
+    <row r="588" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="13"/>
+      <c r="B588" s="7"/>
+    </row>
+    <row r="589" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="13"/>
+      <c r="B589" s="7"/>
+    </row>
+    <row r="590" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="13"/>
+      <c r="B590" s="7"/>
+    </row>
+    <row r="591" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="13"/>
+      <c r="B591" s="7"/>
+    </row>
+    <row r="592" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="13"/>
+      <c r="B592" s="7"/>
+    </row>
+    <row r="593" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="13"/>
+      <c r="B593" s="7"/>
+    </row>
+    <row r="594" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="13"/>
+      <c r="B594" s="7"/>
+    </row>
+    <row r="595" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="13"/>
+      <c r="B595" s="7"/>
+    </row>
+    <row r="596" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="13"/>
+      <c r="B596" s="7"/>
+    </row>
+    <row r="597" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="13"/>
+      <c r="B597" s="7"/>
+    </row>
+    <row r="598" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="13"/>
+      <c r="B598" s="7"/>
+    </row>
+    <row r="599" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="13"/>
+      <c r="B599" s="7"/>
+    </row>
+    <row r="600" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="13"/>
+      <c r="B600" s="7"/>
+    </row>
+    <row r="601" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="13"/>
+      <c r="B601" s="7"/>
+    </row>
+    <row r="602" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="13"/>
+      <c r="B602" s="7"/>
+    </row>
+    <row r="603" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="13"/>
+      <c r="B603" s="7"/>
+    </row>
+    <row r="604" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="13"/>
+      <c r="B604" s="7"/>
+    </row>
+    <row r="605" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="13"/>
+      <c r="B605" s="7"/>
+    </row>
+    <row r="606" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="13"/>
+      <c r="B606" s="7"/>
+    </row>
+    <row r="607" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="13"/>
+      <c r="B607" s="7"/>
+    </row>
+    <row r="608" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="13"/>
+      <c r="B608" s="7"/>
+    </row>
+    <row r="609" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="13"/>
+      <c r="B609" s="7"/>
+    </row>
+    <row r="610" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="13"/>
+      <c r="B610" s="7"/>
+    </row>
+    <row r="611" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="13"/>
+      <c r="B611" s="7"/>
+    </row>
+    <row r="612" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="13"/>
+      <c r="B612" s="7"/>
+    </row>
+    <row r="613" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="13"/>
+      <c r="B613" s="7"/>
+    </row>
+    <row r="614" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="13"/>
+      <c r="B614" s="7"/>
+    </row>
+    <row r="615" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="13"/>
+      <c r="B615" s="7"/>
+    </row>
+    <row r="616" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="13"/>
+      <c r="B616" s="7"/>
+    </row>
+    <row r="617" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="13"/>
+      <c r="B617" s="7"/>
+    </row>
+    <row r="618" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="13"/>
+      <c r="B618" s="7"/>
+    </row>
+    <row r="619" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="13"/>
+      <c r="B619" s="7"/>
+    </row>
+    <row r="620" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="13"/>
+      <c r="B620" s="7"/>
+    </row>
+    <row r="621" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="13"/>
+      <c r="B621" s="7"/>
+    </row>
+    <row r="622" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="13"/>
+      <c r="B622" s="7"/>
+    </row>
+    <row r="623" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="13"/>
+      <c r="B623" s="7"/>
+    </row>
+    <row r="624" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="13"/>
+      <c r="B624" s="7"/>
+    </row>
+    <row r="625" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="13"/>
+      <c r="B625" s="7"/>
+    </row>
+    <row r="626" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="13"/>
+      <c r="B626" s="7"/>
+    </row>
+    <row r="627" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="13"/>
+      <c r="B627" s="7"/>
+    </row>
+    <row r="628" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="13"/>
+      <c r="B628" s="7"/>
+    </row>
+    <row r="629" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="13"/>
+      <c r="B629" s="7"/>
+    </row>
+    <row r="630" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="13"/>
+      <c r="B630" s="7"/>
+    </row>
+    <row r="631" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="13"/>
+      <c r="B631" s="7"/>
+    </row>
+    <row r="632" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="13"/>
+      <c r="B632" s="7"/>
+    </row>
+    <row r="633" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="13"/>
+      <c r="B633" s="7"/>
+    </row>
+    <row r="634" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="13"/>
+      <c r="B634" s="7"/>
+    </row>
+    <row r="635" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="13"/>
+      <c r="B635" s="7"/>
+    </row>
+    <row r="636" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="13"/>
+      <c r="B636" s="7"/>
+    </row>
+    <row r="637" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="13"/>
+      <c r="B637" s="7"/>
+    </row>
+    <row r="638" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="13"/>
+      <c r="B638" s="7"/>
+    </row>
+    <row r="639" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="13"/>
+      <c r="B639" s="7"/>
+    </row>
+    <row r="640" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="13"/>
+      <c r="B640" s="7"/>
+    </row>
+    <row r="641" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="13"/>
+      <c r="B641" s="7"/>
+    </row>
+    <row r="642" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="13"/>
+      <c r="B642" s="7"/>
+    </row>
+    <row r="643" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="13"/>
+      <c r="B643" s="7"/>
+    </row>
+    <row r="644" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="13"/>
+      <c r="B644" s="7"/>
+    </row>
+    <row r="645" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="13"/>
+      <c r="B645" s="7"/>
+    </row>
+    <row r="646" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="13"/>
+      <c r="B646" s="7"/>
+    </row>
+    <row r="647" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="13"/>
+      <c r="B647" s="7"/>
+    </row>
+    <row r="648" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="13"/>
+      <c r="B648" s="7"/>
+    </row>
+    <row r="649" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="13"/>
+      <c r="B649" s="7"/>
+    </row>
+    <row r="650" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="13"/>
+      <c r="B650" s="7"/>
+    </row>
+    <row r="651" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="13"/>
+      <c r="B651" s="7"/>
+    </row>
+    <row r="652" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="13"/>
+      <c r="B652" s="7"/>
+    </row>
+    <row r="653" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="13"/>
+      <c r="B653" s="7"/>
+    </row>
+    <row r="654" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="13"/>
+      <c r="B654" s="7"/>
+    </row>
+    <row r="655" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="13"/>
+      <c r="B655" s="7"/>
+    </row>
+    <row r="656" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="13"/>
+      <c r="B656" s="7"/>
+    </row>
+    <row r="657" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="13"/>
+      <c r="B657" s="7"/>
+    </row>
+    <row r="658" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="13"/>
+      <c r="B658" s="7"/>
+    </row>
+    <row r="659" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="13"/>
+      <c r="B659" s="7"/>
+    </row>
+    <row r="660" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="13"/>
+      <c r="B660" s="7"/>
+    </row>
+    <row r="661" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="13"/>
+      <c r="B661" s="7"/>
+    </row>
+    <row r="662" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="13"/>
+      <c r="B662" s="7"/>
+    </row>
+    <row r="663" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="13"/>
+      <c r="B663" s="7"/>
+    </row>
+    <row r="664" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="13"/>
+      <c r="B664" s="7"/>
+    </row>
+    <row r="665" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="13"/>
+      <c r="B665" s="7"/>
+    </row>
+    <row r="666" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="13"/>
+      <c r="B666" s="7"/>
+    </row>
+    <row r="667" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="13"/>
+      <c r="B667" s="7"/>
+    </row>
+    <row r="668" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="13"/>
+      <c r="B668" s="7"/>
+    </row>
+    <row r="669" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="13"/>
+      <c r="B669" s="7"/>
+    </row>
+    <row r="670" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="13"/>
+      <c r="B670" s="7"/>
+    </row>
+    <row r="671" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="13"/>
+      <c r="B671" s="7"/>
+    </row>
+    <row r="672" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="13"/>
+      <c r="B672" s="7"/>
+    </row>
+    <row r="673" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="13"/>
+      <c r="B673" s="7"/>
+    </row>
+    <row r="674" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="13"/>
+      <c r="B674" s="7"/>
+    </row>
+    <row r="675" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="13"/>
+      <c r="B675" s="7"/>
+    </row>
+    <row r="676" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="13"/>
+      <c r="B676" s="7"/>
+    </row>
+    <row r="677" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="13"/>
+      <c r="B677" s="7"/>
+    </row>
+    <row r="678" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="13"/>
+      <c r="B678" s="7"/>
+    </row>
+    <row r="679" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="13"/>
+      <c r="B679" s="7"/>
+    </row>
+    <row r="680" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="13"/>
+      <c r="B680" s="7"/>
+    </row>
+    <row r="681" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="13"/>
+      <c r="B681" s="7"/>
+    </row>
+    <row r="682" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="13"/>
+      <c r="B682" s="7"/>
+    </row>
+    <row r="683" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="13"/>
+      <c r="B683" s="7"/>
+    </row>
+    <row r="684" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="13"/>
+      <c r="B684" s="7"/>
+    </row>
+    <row r="685" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="13"/>
+      <c r="B685" s="7"/>
+    </row>
+    <row r="686" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="13"/>
+      <c r="B686" s="7"/>
+    </row>
+    <row r="687" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="13"/>
+      <c r="B687" s="7"/>
+    </row>
+    <row r="688" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="13"/>
+      <c r="B688" s="7"/>
+    </row>
+    <row r="689" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="13"/>
+      <c r="B689" s="7"/>
+    </row>
+    <row r="690" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="13"/>
+      <c r="B690" s="7"/>
+    </row>
+    <row r="691" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="13"/>
+      <c r="B691" s="7"/>
+    </row>
+    <row r="692" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="13"/>
+      <c r="B692" s="7"/>
+    </row>
+    <row r="693" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="13"/>
+      <c r="B693" s="7"/>
+    </row>
+    <row r="694" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="13"/>
+      <c r="B694" s="7"/>
+    </row>
+    <row r="695" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="13"/>
+      <c r="B695" s="7"/>
+    </row>
+    <row r="696" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="13"/>
+      <c r="B696" s="7"/>
+    </row>
+    <row r="697" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="13"/>
+      <c r="B697" s="7"/>
+    </row>
+    <row r="698" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="13"/>
+      <c r="B698" s="7"/>
+    </row>
+    <row r="699" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="13"/>
+      <c r="B699" s="7"/>
+    </row>
+    <row r="700" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="13"/>
+      <c r="B700" s="7"/>
+    </row>
+    <row r="701" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="13"/>
+      <c r="B701" s="7"/>
+    </row>
+    <row r="702" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="13"/>
+      <c r="B702" s="7"/>
+    </row>
+    <row r="703" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="13"/>
+      <c r="B703" s="7"/>
+    </row>
+    <row r="704" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="13"/>
+      <c r="B704" s="7"/>
+    </row>
+    <row r="705" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="13"/>
+      <c r="B705" s="7"/>
+    </row>
+    <row r="706" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="13"/>
+      <c r="B706" s="7"/>
+    </row>
+    <row r="707" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="13"/>
+      <c r="B707" s="7"/>
+    </row>
+    <row r="708" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="13"/>
+      <c r="B708" s="7"/>
+    </row>
+    <row r="709" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="13"/>
+      <c r="B709" s="7"/>
+    </row>
+    <row r="710" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="13"/>
+      <c r="B710" s="7"/>
+    </row>
+    <row r="711" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="13"/>
+      <c r="B711" s="7"/>
+    </row>
+    <row r="712" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="13"/>
+      <c r="B712" s="7"/>
+    </row>
+    <row r="713" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="13"/>
+      <c r="B713" s="7"/>
+    </row>
+    <row r="714" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="13"/>
+      <c r="B714" s="7"/>
+    </row>
+    <row r="715" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="13"/>
+      <c r="B715" s="7"/>
+    </row>
+    <row r="716" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="13"/>
+      <c r="B716" s="7"/>
+    </row>
+    <row r="717" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="13"/>
+      <c r="B717" s="7"/>
+    </row>
+    <row r="718" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="13"/>
+      <c r="B718" s="7"/>
+    </row>
+    <row r="719" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="13"/>
+      <c r="B719" s="7"/>
+    </row>
+    <row r="720" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="13"/>
+      <c r="B720" s="7"/>
+    </row>
+    <row r="721" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="13"/>
+      <c r="B721" s="7"/>
+    </row>
+    <row r="722" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="13"/>
+      <c r="B722" s="7"/>
+    </row>
+    <row r="723" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="13"/>
+      <c r="B723" s="7"/>
+    </row>
+    <row r="724" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="13"/>
+      <c r="B724" s="7"/>
+    </row>
+    <row r="725" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="13"/>
+      <c r="B725" s="7"/>
+    </row>
+    <row r="726" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="13"/>
+      <c r="B726" s="7"/>
+    </row>
+    <row r="727" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="13"/>
+      <c r="B727" s="7"/>
+    </row>
+    <row r="728" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="13"/>
+      <c r="B728" s="7"/>
+    </row>
+    <row r="729" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="13"/>
+      <c r="B729" s="7"/>
+    </row>
+    <row r="730" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="13"/>
+      <c r="B730" s="7"/>
+    </row>
+    <row r="731" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="13"/>
+      <c r="B731" s="7"/>
+    </row>
+    <row r="732" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="13"/>
+      <c r="B732" s="7"/>
+    </row>
+    <row r="733" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="13"/>
+      <c r="B733" s="7"/>
+    </row>
+    <row r="734" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="13"/>
+      <c r="B734" s="7"/>
+    </row>
+    <row r="735" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="13"/>
+      <c r="B735" s="7"/>
+    </row>
+    <row r="736" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A736" s="13"/>
+      <c r="B736" s="7"/>
+    </row>
+    <row r="737" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="13"/>
+      <c r="B737" s="7"/>
+    </row>
+    <row r="738" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="13"/>
+      <c r="B738" s="7"/>
+    </row>
+    <row r="739" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="13"/>
+      <c r="B739" s="7"/>
+    </row>
+    <row r="740" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="13"/>
+      <c r="B740" s="7"/>
+    </row>
+    <row r="741" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="13"/>
+      <c r="B741" s="7"/>
+    </row>
+    <row r="742" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="13"/>
+      <c r="B742" s="7"/>
+    </row>
+    <row r="743" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="13"/>
+      <c r="B743" s="7"/>
+    </row>
+    <row r="744" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="13"/>
+      <c r="B744" s="7"/>
+    </row>
+    <row r="745" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="13"/>
+      <c r="B745" s="7"/>
+    </row>
+    <row r="746" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="13"/>
+      <c r="B746" s="7"/>
+    </row>
+    <row r="747" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="13"/>
+      <c r="B747" s="7"/>
+    </row>
+    <row r="748" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A748" s="13"/>
+      <c r="B748" s="7"/>
+    </row>
+    <row r="749" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="13"/>
+      <c r="B749" s="7"/>
+    </row>
+    <row r="750" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="13"/>
+      <c r="B750" s="7"/>
+    </row>
+    <row r="751" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A751" s="13"/>
+      <c r="B751" s="7"/>
+    </row>
+    <row r="752" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="13"/>
+      <c r="B752" s="7"/>
+    </row>
+    <row r="753" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="13"/>
+      <c r="B753" s="7"/>
+    </row>
+    <row r="754" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="13"/>
+      <c r="B754" s="7"/>
+    </row>
+    <row r="755" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="13"/>
+      <c r="B755" s="7"/>
+    </row>
+    <row r="756" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="13"/>
+      <c r="B756" s="7"/>
+    </row>
+    <row r="757" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="13"/>
+      <c r="B757" s="7"/>
+    </row>
+    <row r="758" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="13"/>
+      <c r="B758" s="7"/>
+    </row>
+    <row r="759" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="13"/>
+      <c r="B759" s="7"/>
+    </row>
+    <row r="760" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A760" s="13"/>
+      <c r="B760" s="7"/>
+    </row>
+    <row r="761" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="13"/>
+      <c r="B761" s="7"/>
+    </row>
+    <row r="762" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="13"/>
+      <c r="B762" s="7"/>
+    </row>
+    <row r="763" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="13"/>
+      <c r="B763" s="7"/>
+    </row>
+    <row r="764" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="13"/>
+      <c r="B764" s="7"/>
+    </row>
+    <row r="765" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="13"/>
+      <c r="B765" s="7"/>
+    </row>
+    <row r="766" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A766" s="13"/>
+      <c r="B766" s="7"/>
+    </row>
+    <row r="767" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="13"/>
+      <c r="B767" s="7"/>
+    </row>
+    <row r="768" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="13"/>
+      <c r="B768" s="7"/>
+    </row>
+    <row r="769" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A769" s="13"/>
+      <c r="B769" s="7"/>
+    </row>
+    <row r="770" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="13"/>
+      <c r="B770" s="7"/>
+    </row>
+    <row r="771" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="13"/>
+      <c r="B771" s="7"/>
+    </row>
+    <row r="772" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="13"/>
+      <c r="B772" s="7"/>
+    </row>
+    <row r="773" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="13"/>
+      <c r="B773" s="7"/>
+    </row>
+    <row r="774" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="13"/>
+      <c r="B774" s="7"/>
+    </row>
+    <row r="775" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="13"/>
+      <c r="B775" s="7"/>
+    </row>
+    <row r="776" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="13"/>
+      <c r="B776" s="7"/>
+    </row>
+    <row r="777" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A777" s="13"/>
+      <c r="B777" s="7"/>
+    </row>
+    <row r="778" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A778" s="13"/>
+      <c r="B778" s="7"/>
+    </row>
+    <row r="779" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A779" s="13"/>
+      <c r="B779" s="7"/>
+    </row>
+    <row r="780" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="13"/>
+      <c r="B780" s="7"/>
+    </row>
+    <row r="781" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A781" s="13"/>
+      <c r="B781" s="7"/>
+    </row>
+    <row r="782" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A782" s="13"/>
+      <c r="B782" s="7"/>
+    </row>
+    <row r="783" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="13"/>
+      <c r="B783" s="7"/>
+    </row>
+    <row r="784" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A784" s="13"/>
+      <c r="B784" s="7"/>
+    </row>
+    <row r="785" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A785" s="13"/>
+      <c r="B785" s="7"/>
+    </row>
+    <row r="786" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="13"/>
+      <c r="B786" s="7"/>
+    </row>
+    <row r="787" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A787" s="13"/>
+      <c r="B787" s="7"/>
+    </row>
+    <row r="788" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="13"/>
+      <c r="B788" s="7"/>
+    </row>
+    <row r="789" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="13"/>
+      <c r="B789" s="7"/>
+    </row>
+    <row r="790" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A790" s="13"/>
+      <c r="B790" s="7"/>
+    </row>
+    <row r="791" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="13"/>
+      <c r="B791" s="7"/>
+    </row>
+    <row r="792" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="13"/>
+      <c r="B792" s="7"/>
+    </row>
+    <row r="793" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A793" s="13"/>
+      <c r="B793" s="7"/>
+    </row>
+    <row r="794" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A794" s="13"/>
+      <c r="B794" s="7"/>
+    </row>
+    <row r="795" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A795" s="13"/>
+      <c r="B795" s="7"/>
+    </row>
+    <row r="796" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A796" s="13"/>
+      <c r="B796" s="7"/>
+    </row>
+    <row r="797" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="13"/>
+      <c r="B797" s="7"/>
+    </row>
+    <row r="798" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="13"/>
+      <c r="B798" s="7"/>
+    </row>
+    <row r="799" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="13"/>
+      <c r="B799" s="7"/>
+    </row>
+    <row r="800" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="13"/>
+      <c r="B800" s="7"/>
+    </row>
+    <row r="801" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="13"/>
+      <c r="B801" s="7"/>
+    </row>
+    <row r="802" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="13"/>
+      <c r="B802" s="7"/>
+    </row>
+    <row r="803" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="13"/>
+      <c r="B803" s="7"/>
+    </row>
+    <row r="804" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A804" s="13"/>
+      <c r="B804" s="7"/>
+    </row>
+    <row r="805" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A805" s="13"/>
+      <c r="B805" s="7"/>
+    </row>
+    <row r="806" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A806" s="13"/>
+      <c r="B806" s="7"/>
+    </row>
+    <row r="807" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A807" s="13"/>
+      <c r="B807" s="7"/>
+    </row>
+    <row r="808" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A808" s="13"/>
+      <c r="B808" s="7"/>
+    </row>
+    <row r="809" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="13"/>
+      <c r="B809" s="7"/>
+    </row>
+    <row r="810" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="13"/>
+      <c r="B810" s="7"/>
+    </row>
+    <row r="811" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="13"/>
+      <c r="B811" s="7"/>
+    </row>
+    <row r="812" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A812" s="13"/>
+      <c r="B812" s="7"/>
+    </row>
+    <row r="813" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A813" s="13"/>
+      <c r="B813" s="7"/>
+    </row>
+    <row r="814" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A814" s="13"/>
+      <c r="B814" s="7"/>
+    </row>
+    <row r="815" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A815" s="13"/>
+      <c r="B815" s="7"/>
+    </row>
+    <row r="816" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A816" s="13"/>
+      <c r="B816" s="7"/>
+    </row>
+    <row r="817" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A817" s="13"/>
+      <c r="B817" s="7"/>
+    </row>
+    <row r="818" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A818" s="13"/>
+      <c r="B818" s="7"/>
+    </row>
+    <row r="819" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="13"/>
+      <c r="B819" s="7"/>
+    </row>
+    <row r="820" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="13"/>
+      <c r="B820" s="7"/>
+    </row>
+    <row r="821" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="13"/>
+      <c r="B821" s="7"/>
+    </row>
+    <row r="822" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A822" s="13"/>
+      <c r="B822" s="7"/>
+    </row>
+    <row r="823" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A823" s="13"/>
+      <c r="B823" s="7"/>
+    </row>
+    <row r="824" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A824" s="13"/>
+      <c r="B824" s="7"/>
+    </row>
+    <row r="825" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A825" s="13"/>
+      <c r="B825" s="7"/>
+    </row>
+    <row r="826" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A826" s="13"/>
+      <c r="B826" s="7"/>
+    </row>
+    <row r="827" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A827" s="13"/>
+      <c r="B827" s="7"/>
+    </row>
+    <row r="828" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A828" s="13"/>
+      <c r="B828" s="7"/>
+    </row>
+    <row r="829" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A829" s="13"/>
+      <c r="B829" s="7"/>
+    </row>
+    <row r="830" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="13"/>
+      <c r="B830" s="7"/>
+    </row>
+    <row r="831" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="13"/>
+      <c r="B831" s="7"/>
+    </row>
+    <row r="832" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="13"/>
+      <c r="B832" s="7"/>
+    </row>
+    <row r="833" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A833" s="13"/>
+      <c r="B833" s="7"/>
+    </row>
+    <row r="834" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A834" s="13"/>
+      <c r="B834" s="7"/>
+    </row>
+    <row r="835" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A835" s="13"/>
+      <c r="B835" s="7"/>
+    </row>
+    <row r="836" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A836" s="13"/>
+      <c r="B836" s="7"/>
+    </row>
+    <row r="837" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A837" s="13"/>
+      <c r="B837" s="7"/>
+    </row>
+    <row r="838" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A838" s="13"/>
+      <c r="B838" s="7"/>
+    </row>
+    <row r="839" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A839" s="13"/>
+      <c r="B839" s="7"/>
+    </row>
+    <row r="840" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A840" s="13"/>
+      <c r="B840" s="7"/>
+    </row>
+    <row r="841" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A841" s="13"/>
+      <c r="B841" s="7"/>
+    </row>
+    <row r="842" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="13"/>
+      <c r="B842" s="7"/>
+    </row>
+    <row r="843" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A843" s="13"/>
+      <c r="B843" s="7"/>
+    </row>
+    <row r="844" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A844" s="13"/>
+      <c r="B844" s="7"/>
+    </row>
+    <row r="845" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A845" s="13"/>
+      <c r="B845" s="7"/>
+    </row>
+    <row r="846" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A846" s="13"/>
+      <c r="B846" s="7"/>
+    </row>
+    <row r="847" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A847" s="13"/>
+      <c r="B847" s="7"/>
+    </row>
+    <row r="848" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A848" s="13"/>
+      <c r="B848" s="7"/>
+    </row>
+    <row r="849" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A849" s="13"/>
+      <c r="B849" s="7"/>
+    </row>
+    <row r="850" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A850" s="13"/>
+      <c r="B850" s="7"/>
+    </row>
+    <row r="851" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A851" s="13"/>
+      <c r="B851" s="7"/>
+    </row>
+    <row r="852" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="13"/>
+      <c r="B852" s="7"/>
+    </row>
+    <row r="853" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A853" s="13"/>
+      <c r="B853" s="7"/>
+    </row>
+    <row r="854" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A854" s="13"/>
+      <c r="B854" s="7"/>
+    </row>
+    <row r="855" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A855" s="13"/>
+      <c r="B855" s="7"/>
+    </row>
+    <row r="856" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="13"/>
+      <c r="B856" s="7"/>
+    </row>
+    <row r="857" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A857" s="13"/>
+      <c r="B857" s="7"/>
+    </row>
+    <row r="858" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="13"/>
+      <c r="B858" s="7"/>
+    </row>
+    <row r="859" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="13"/>
+      <c r="B859" s="7"/>
+    </row>
+    <row r="860" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A860" s="13"/>
+      <c r="B860" s="7"/>
+    </row>
+    <row r="861" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A861" s="13"/>
+      <c r="B861" s="7"/>
+    </row>
+    <row r="862" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="13"/>
+      <c r="B862" s="7"/>
+    </row>
+    <row r="863" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A863" s="13"/>
+      <c r="B863" s="7"/>
+    </row>
+    <row r="864" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="13"/>
+      <c r="B864" s="7"/>
+    </row>
+    <row r="865" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A865" s="13"/>
+      <c r="B865" s="7"/>
+    </row>
+    <row r="866" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A866" s="13"/>
+      <c r="B866" s="7"/>
+    </row>
+    <row r="867" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A867" s="13"/>
+      <c r="B867" s="7"/>
+    </row>
+    <row r="868" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A868" s="13"/>
+      <c r="B868" s="7"/>
+    </row>
+    <row r="869" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A869" s="13"/>
+      <c r="B869" s="7"/>
+    </row>
+    <row r="870" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="13"/>
+      <c r="B870" s="7"/>
+    </row>
+    <row r="871" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="13"/>
+      <c r="B871" s="7"/>
+    </row>
+    <row r="872" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A872" s="13"/>
+      <c r="B872" s="7"/>
+    </row>
+    <row r="873" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A873" s="13"/>
+      <c r="B873" s="7"/>
+    </row>
+    <row r="874" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A874" s="13"/>
+      <c r="B874" s="7"/>
+    </row>
+    <row r="875" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A875" s="13"/>
+      <c r="B875" s="7"/>
+    </row>
+    <row r="876" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A876" s="13"/>
+      <c r="B876" s="7"/>
+    </row>
+    <row r="877" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A877" s="13"/>
+      <c r="B877" s="7"/>
+    </row>
+    <row r="878" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A878" s="13"/>
+      <c r="B878" s="7"/>
+    </row>
+    <row r="879" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="13"/>
+      <c r="B879" s="7"/>
+    </row>
+    <row r="880" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="13"/>
+      <c r="B880" s="7"/>
+    </row>
+    <row r="881" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="13"/>
+      <c r="B881" s="7"/>
+    </row>
+    <row r="882" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="13"/>
+      <c r="B882" s="7"/>
+    </row>
+    <row r="883" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="13"/>
+      <c r="B883" s="7"/>
+    </row>
+    <row r="884" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A884" s="13"/>
+      <c r="B884" s="7"/>
+    </row>
+    <row r="885" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A885" s="13"/>
+      <c r="B885" s="7"/>
+    </row>
+    <row r="886" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A886" s="13"/>
+      <c r="B886" s="7"/>
+    </row>
+    <row r="887" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A887" s="13"/>
+      <c r="B887" s="7"/>
+    </row>
+    <row r="888" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A888" s="13"/>
+      <c r="B888" s="7"/>
+    </row>
+    <row r="889" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A889" s="13"/>
+      <c r="B889" s="7"/>
+    </row>
+    <row r="890" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A890" s="13"/>
+      <c r="B890" s="7"/>
+    </row>
+    <row r="891" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A891" s="13"/>
+      <c r="B891" s="7"/>
+    </row>
+    <row r="892" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A892" s="13"/>
+      <c r="B892" s="7"/>
+    </row>
+    <row r="893" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A893" s="13"/>
+      <c r="B893" s="7"/>
+    </row>
+    <row r="894" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A894" s="13"/>
+      <c r="B894" s="7"/>
+    </row>
+    <row r="895" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A895" s="13"/>
+      <c r="B895" s="7"/>
+    </row>
+    <row r="896" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A896" s="13"/>
+      <c r="B896" s="7"/>
+    </row>
+    <row r="897" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="13"/>
+      <c r="B897" s="7"/>
+    </row>
+    <row r="898" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A898" s="13"/>
+      <c r="B898" s="7"/>
+    </row>
+    <row r="899" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="13"/>
+      <c r="B899" s="7"/>
+    </row>
+    <row r="900" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="13"/>
+      <c r="B900" s="7"/>
+    </row>
+    <row r="901" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="13"/>
+      <c r="B901" s="7"/>
+    </row>
+    <row r="902" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="13"/>
+      <c r="B902" s="7"/>
+    </row>
+    <row r="903" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="13"/>
+      <c r="B903" s="7"/>
+    </row>
+    <row r="904" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="13"/>
+      <c r="B904" s="7"/>
+    </row>
+    <row r="905" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="13"/>
+      <c r="B905" s="7"/>
+    </row>
+    <row r="906" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="13"/>
+      <c r="B906" s="7"/>
+    </row>
+    <row r="907" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="13"/>
+      <c r="B907" s="7"/>
+    </row>
+    <row r="908" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="13"/>
+      <c r="B908" s="7"/>
+    </row>
+    <row r="909" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="13"/>
+      <c r="B909" s="7"/>
+    </row>
+    <row r="910" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="13"/>
+      <c r="B910" s="7"/>
+    </row>
+    <row r="911" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="13"/>
+      <c r="B911" s="7"/>
+    </row>
+    <row r="912" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="13"/>
+      <c r="B912" s="7"/>
+    </row>
+    <row r="913" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="13"/>
+      <c r="B913" s="7"/>
+    </row>
+    <row r="914" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="13"/>
+      <c r="B914" s="7"/>
+    </row>
+    <row r="915" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="13"/>
+      <c r="B915" s="7"/>
+    </row>
+    <row r="916" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="13"/>
+      <c r="B916" s="7"/>
+    </row>
+    <row r="917" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="13"/>
+      <c r="B917" s="7"/>
+    </row>
+    <row r="918" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="13"/>
+      <c r="B918" s="7"/>
+    </row>
+    <row r="919" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="13"/>
+      <c r="B919" s="7"/>
+    </row>
+    <row r="920" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="13"/>
+      <c r="B920" s="7"/>
+    </row>
+    <row r="921" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="13"/>
+      <c r="B921" s="7"/>
+    </row>
+    <row r="922" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A922" s="13"/>
+      <c r="B922" s="7"/>
+    </row>
+    <row r="923" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A923" s="13"/>
+      <c r="B923" s="7"/>
+    </row>
+    <row r="924" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A924" s="13"/>
+      <c r="B924" s="7"/>
+    </row>
+    <row r="925" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A925" s="13"/>
+      <c r="B925" s="7"/>
+    </row>
+    <row r="926" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="13"/>
+      <c r="B926" s="7"/>
+    </row>
+    <row r="927" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A927" s="13"/>
+      <c r="B927" s="7"/>
+    </row>
+    <row r="928" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A928" s="13"/>
+      <c r="B928" s="7"/>
+    </row>
+    <row r="929" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A929" s="13"/>
+      <c r="B929" s="7"/>
+    </row>
+    <row r="930" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A930" s="13"/>
+      <c r="B930" s="7"/>
+    </row>
+    <row r="931" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A931" s="13"/>
+      <c r="B931" s="7"/>
+    </row>
+    <row r="932" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A932" s="13"/>
+      <c r="B932" s="7"/>
+    </row>
+    <row r="933" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A933" s="13"/>
+      <c r="B933" s="7"/>
+    </row>
+    <row r="934" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A934" s="13"/>
+      <c r="B934" s="7"/>
+    </row>
+    <row r="935" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A935" s="13"/>
+      <c r="B935" s="7"/>
+    </row>
+    <row r="936" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A936" s="13"/>
+      <c r="B936" s="7"/>
+    </row>
+    <row r="937" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="13"/>
+      <c r="B937" s="7"/>
+    </row>
+    <row r="938" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="13"/>
+      <c r="B938" s="7"/>
+    </row>
+    <row r="939" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A939" s="13"/>
+      <c r="B939" s="7"/>
+    </row>
+    <row r="940" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="13"/>
+      <c r="B940" s="7"/>
+    </row>
+    <row r="941" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="13"/>
+      <c r="B941" s="7"/>
+    </row>
+    <row r="942" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A942" s="13"/>
+      <c r="B942" s="7"/>
+    </row>
+    <row r="943" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A943" s="13"/>
+      <c r="B943" s="7"/>
+    </row>
+    <row r="944" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A944" s="13"/>
+      <c r="B944" s="7"/>
+    </row>
+    <row r="945" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="13"/>
+      <c r="B945" s="7"/>
+    </row>
+    <row r="946" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="13"/>
+      <c r="B946" s="7"/>
+    </row>
+    <row r="947" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="13"/>
+      <c r="B947" s="7"/>
+    </row>
+    <row r="948" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="13"/>
+      <c r="B948" s="7"/>
+    </row>
+    <row r="949" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="13"/>
+      <c r="B949" s="7"/>
+    </row>
+    <row r="950" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="13"/>
+      <c r="B950" s="7"/>
+    </row>
+    <row r="951" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="13"/>
+      <c r="B951" s="7"/>
+    </row>
+    <row r="952" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="13"/>
+      <c r="B952" s="7"/>
+    </row>
+    <row r="953" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="13"/>
+      <c r="B953" s="7"/>
+    </row>
+    <row r="954" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="13"/>
+      <c r="B954" s="7"/>
+    </row>
+    <row r="955" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="13"/>
+      <c r="B955" s="7"/>
+    </row>
+    <row r="956" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="13"/>
+      <c r="B956" s="7"/>
+    </row>
+    <row r="957" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="13"/>
+      <c r="B957" s="7"/>
+    </row>
+    <row r="958" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="13"/>
+      <c r="B958" s="7"/>
+    </row>
+    <row r="959" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="13"/>
+      <c r="B959" s="7"/>
+    </row>
+    <row r="960" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="13"/>
+      <c r="B960" s="7"/>
+    </row>
+    <row r="961" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="13"/>
+      <c r="B961" s="7"/>
+    </row>
+    <row r="962" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="13"/>
+      <c r="B962" s="7"/>
+    </row>
+    <row r="963" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="13"/>
+      <c r="B963" s="7"/>
+    </row>
+    <row r="964" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="13"/>
+      <c r="B964" s="7"/>
+    </row>
+    <row r="965" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="13"/>
+      <c r="B965" s="7"/>
+    </row>
+    <row r="966" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="13"/>
+      <c r="B966" s="7"/>
+    </row>
+    <row r="967" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="13"/>
+      <c r="B967" s="7"/>
+    </row>
+    <row r="968" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="13"/>
+      <c r="B968" s="7"/>
+    </row>
+    <row r="969" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="13"/>
+      <c r="B969" s="7"/>
+    </row>
+    <row r="970" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="13"/>
+      <c r="B970" s="7"/>
+    </row>
+    <row r="971" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="13"/>
+      <c r="B971" s="7"/>
+    </row>
+    <row r="972" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="13"/>
+      <c r="B972" s="7"/>
+    </row>
+    <row r="973" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="13"/>
+      <c r="B973" s="7"/>
+    </row>
+    <row r="974" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="13"/>
+      <c r="B974" s="7"/>
+    </row>
+    <row r="975" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="13"/>
+      <c r="B975" s="7"/>
+    </row>
+    <row r="976" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="13"/>
+      <c r="B976" s="7"/>
+    </row>
+    <row r="977" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="13"/>
+      <c r="B977" s="7"/>
+    </row>
+    <row r="978" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="13"/>
+      <c r="B978" s="7"/>
+    </row>
+    <row r="979" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="13"/>
+      <c r="B979" s="7"/>
+    </row>
+    <row r="980" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="13"/>
+      <c r="B980" s="7"/>
+    </row>
+    <row r="981" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="13"/>
+      <c r="B981" s="7"/>
+    </row>
+    <row r="982" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="13"/>
+      <c r="B982" s="7"/>
+    </row>
+    <row r="983" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="13"/>
+      <c r="B983" s="7"/>
+    </row>
+    <row r="984" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="13"/>
+      <c r="B984" s="7"/>
+    </row>
+    <row r="985" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="13"/>
+      <c r="B985" s="7"/>
+    </row>
+    <row r="986" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="13"/>
+      <c r="B986" s="7"/>
+    </row>
+    <row r="987" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="13"/>
+      <c r="B987" s="7"/>
+    </row>
+    <row r="988" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="13"/>
+      <c r="B988" s="7"/>
+    </row>
+    <row r="989" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A989" s="13"/>
+      <c r="B989" s="7"/>
+    </row>
+    <row r="990" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A990" s="13"/>
+      <c r="B990" s="7"/>
+    </row>
+    <row r="991" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A991" s="13"/>
+      <c r="B991" s="7"/>
+    </row>
+    <row r="992" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A992" s="13"/>
+      <c r="B992" s="7"/>
+    </row>
+    <row r="993" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A993" s="13"/>
+      <c r="B993" s="7"/>
+    </row>
+    <row r="994" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A994" s="13"/>
+      <c r="B994" s="7"/>
+    </row>
+    <row r="995" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A995" s="13"/>
+      <c r="B995" s="7"/>
+    </row>
+    <row r="996" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A996" s="13"/>
+      <c r="B996" s="7"/>
+    </row>
+    <row r="997" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A997" s="13"/>
+      <c r="B997" s="7"/>
+    </row>
+    <row r="998" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A998" s="13"/>
+      <c r="B998" s="7"/>
+    </row>
+    <row r="999" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A999" s="13"/>
+      <c r="B999" s="7"/>
+    </row>
+    <row r="1000" spans="1:2" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="13"/>
+      <c r="B1000" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1000">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <sortState ref="A40:B1000">
+      <sortCondition ref="B1:B1000"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/alphabetindex/Alphabet Index.xlsx
+++ b/alphabetindex/Alphabet Index.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="300">
   <si>
     <r>
       <t>&lt;</t>
@@ -31257,6 +31257,15 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>DINANGA</t>
+  </si>
+  <si>
+    <t>DINDILA</t>
+  </si>
+  <si>
+    <t>KUINDILA</t>
   </si>
 </sst>
 </file>
@@ -33677,8 +33686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34425,16 +34434,28 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="14">
+        <v>45299</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="94" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="14">
+        <v>45299</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="95" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="14">
+        <v>45299</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="96" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
